--- a/students_names.xlsx
+++ b/students_names.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="35">
   <si>
     <t>姓名</t>
   </si>
@@ -69,9 +69,6 @@
     <t>李隆鑫</t>
   </si>
   <si>
-    <t>胡成果（化学）</t>
-  </si>
-  <si>
     <t>申安福</t>
   </si>
   <si>
@@ -94,6 +91,42 @@
   </si>
   <si>
     <t>谭鑫</t>
+  </si>
+  <si>
+    <t>黄永秋兰</t>
+  </si>
+  <si>
+    <t>（化学 59）</t>
+  </si>
+  <si>
+    <t>张达</t>
+  </si>
+  <si>
+    <t>胡成果（代金券）</t>
+  </si>
+  <si>
+    <t>丁秋萍</t>
+  </si>
+  <si>
+    <t>杨立</t>
+  </si>
+  <si>
+    <t>黄博文</t>
+  </si>
+  <si>
+    <t>清外</t>
+  </si>
+  <si>
+    <t>七年级</t>
+  </si>
+  <si>
+    <t>胡美玲</t>
+  </si>
+  <si>
+    <t>八年级</t>
+  </si>
+  <si>
+    <t>倪萌</t>
   </si>
 </sst>
 </file>
@@ -104,7 +137,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -126,6 +159,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Droid Sans Fallback"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -176,20 +216,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -210,272 +258,483 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:I11"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.8987854251012"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.5748987854251"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="1" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="0" t="n">
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="F2" s="0"/>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="F3" s="0"/>
+      <c r="G3" s="1" t="n">
+        <v>15335800249</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="F4" s="0"/>
+      <c r="G4" s="1" t="n">
+        <v>13100764472</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="F5" s="0"/>
+      <c r="G5" s="1" t="n">
+        <v>13857958403</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="E6" s="0"/>
+      <c r="F6" s="0"/>
+      <c r="G6" s="1" t="n">
+        <v>13227408054</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0"/>
+      <c r="E7" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>18271716006</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="0"/>
+      <c r="E8" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>13451011696</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="F9" s="0"/>
+      <c r="G9" s="1" t="n">
+        <v>13635745048</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="0"/>
+      <c r="E10" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>15272257345</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="0"/>
+      <c r="E11" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="F11" s="0"/>
+      <c r="G11" s="1" t="n">
+        <v>13517189557</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="F12" s="0"/>
+      <c r="G12" s="1" t="n">
+        <v>15172947448</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="F13" s="0"/>
+      <c r="G13" s="1" t="n">
+        <v>15587529366</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="F14" s="0"/>
+      <c r="G14" s="1" t="n">
+        <v>13477215288</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0"/>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="F15" s="0"/>
+      <c r="G15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0"/>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0"/>
+      <c r="G16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0"/>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0"/>
+      <c r="G17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0"/>
+      <c r="B18" s="0"/>
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="0"/>
+      <c r="G18" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>13477255448</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="0" t="n">
+      <c r="G23" s="1" t="n">
+        <v>13403088611</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="3" t="n">
-        <v>15335800249</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="0" t="n">
+      <c r="E24" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="n">
-        <v>13100764472</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3" t="n">
-        <v>13857958403</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="n">
-        <v>13227408054</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3" t="n">
-        <v>18271716006</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3" t="n">
-        <v>13451011696</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3" t="n">
-        <v>13635745048</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3" t="n">
-        <v>15272257345</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>21</v>
+      <c r="G24" s="1" t="n">
+        <v>18872131370</v>
       </c>
     </row>
   </sheetData>
@@ -497,7 +756,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:I11"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F11:F12 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -523,7 +782,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:I11"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F11:F12 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/students_names.xlsx
+++ b/students_names.xlsx
@@ -22,7 +22,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="40">
+  <si>
+    <t>高中部</t>
+  </si>
   <si>
     <t>姓名</t>
   </si>
@@ -60,6 +63,9 @@
     <t>高一</t>
   </si>
   <si>
+    <t>NULL</t>
+  </si>
+  <si>
     <t>18871821756</t>
   </si>
   <si>
@@ -81,6 +87,15 @@
     <t>邓长路</t>
   </si>
   <si>
+    <t>张达</t>
+  </si>
+  <si>
+    <t>胡成果（代金券）</t>
+  </si>
+  <si>
+    <t>丁秋萍</t>
+  </si>
+  <si>
     <t>李亚俐</t>
   </si>
   <si>
@@ -99,16 +114,16 @@
     <t>（化学 59）</t>
   </si>
   <si>
-    <t>张达</t>
-  </si>
-  <si>
-    <t>胡成果（代金券）</t>
-  </si>
-  <si>
-    <t>丁秋萍</t>
-  </si>
-  <si>
     <t>杨立</t>
+  </si>
+  <si>
+    <t>陈沪琴</t>
+  </si>
+  <si>
+    <t>未交费</t>
+  </si>
+  <si>
+    <t>初中部</t>
   </si>
   <si>
     <t>黄博文</t>
@@ -165,13 +180,13 @@
       <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -216,7 +231,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -225,8 +240,16 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -235,10 +258,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -261,17 +280,17 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11:F12"/>
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="4" min="1" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.3522267206478"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -279,433 +298,551 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+      <c r="G1" s="0"/>
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="n">
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E3" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="F2" s="0"/>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="H3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="n">
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E4" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="F3" s="0"/>
-      <c r="G3" s="1" t="n">
+      <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="n">
         <v>15335800249</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="n">
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E5" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="F4" s="0"/>
-      <c r="G4" s="1" t="n">
+      <c r="F5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1" t="n">
         <v>13100764472</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="H5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="n">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E6" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="F5" s="0"/>
-      <c r="G5" s="1" t="n">
+      <c r="F6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1" t="n">
         <v>13857958403</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="H6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="n">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="E6" s="0"/>
-      <c r="F6" s="0"/>
-      <c r="G6" s="1" t="n">
+      <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1" t="n">
         <v>13227408054</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="H7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="0"/>
-      <c r="E7" s="1" t="n">
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F8" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G8" s="1" t="n">
         <v>18271716006</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="H8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="0"/>
-      <c r="E8" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>13451011696</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>11</v>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="F9" s="0"/>
+        <v>50</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="G9" s="1" t="n">
-        <v>13635745048</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>18</v>
+        <v>15172947448</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="0"/>
+      <c r="A10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>90</v>
+      </c>
       <c r="E10" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="F10" s="1" t="n">
-        <v>54</v>
+      <c r="F10" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>15272257345</v>
-      </c>
-      <c r="H10" s="2" t="s">
+        <v>15587529366</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>13451011696</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="0"/>
-    </row>
-    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="0"/>
-      <c r="E11" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="F11" s="0"/>
-      <c r="G11" s="1" t="n">
-        <v>13517189557</v>
-      </c>
-      <c r="H11" s="2" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>13635745048</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="E12" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="F12" s="0"/>
-      <c r="G12" s="1" t="n">
-        <v>15172947448</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="1" t="n">
-        <v>90</v>
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="F13" s="0"/>
+      <c r="F13" s="1" t="n">
+        <v>54</v>
+      </c>
       <c r="G13" s="1" t="n">
-        <v>15587529366</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+        <v>15272257345</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="1" t="n">
-        <v>90</v>
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E14" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>13517189557</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="E15" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="F14" s="0"/>
-      <c r="G14" s="1" t="n">
+      <c r="F15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="1" t="n">
         <v>13477215288</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0"/>
-      <c r="B15" s="0"/>
-      <c r="C15" s="0"/>
-      <c r="F15" s="0"/>
-      <c r="G15" s="0"/>
+      <c r="H15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0"/>
-      <c r="B16" s="0"/>
-      <c r="C16" s="0"/>
-      <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
-      <c r="F16" s="0"/>
-      <c r="G16" s="0"/>
+      <c r="A16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>18071923712</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0"/>
-      <c r="B17" s="0"/>
-      <c r="C17" s="0"/>
-      <c r="D17" s="0"/>
-      <c r="E17" s="0"/>
-      <c r="F17" s="0"/>
-      <c r="G17" s="0"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="0"/>
+      <c r="I17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0"/>
-      <c r="B18" s="0"/>
-      <c r="C18" s="0"/>
-      <c r="D18" s="0"/>
-      <c r="E18" s="0"/>
-      <c r="F18" s="0"/>
-      <c r="G18" s="0"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="0"/>
+      <c r="I18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="A22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
       <c r="F22" s="1" t="n">
         <v>80</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>13477255448</v>
       </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>33</v>
+      <c r="A23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>1</v>
@@ -716,16 +853,18 @@
       <c r="G23" s="1" t="n">
         <v>13403088611</v>
       </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>33</v>
+      <c r="A24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="D24" s="1" t="n">
         <v>1</v>
@@ -736,6 +875,8 @@
       <c r="G24" s="1" t="n">
         <v>18872131370</v>
       </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -756,12 +897,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F11:F12 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="4" width="8.57085020242915"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -782,12 +923,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F11:F12 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="4" width="8.57085020242915"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/students_names.xlsx
+++ b/students_names.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="63">
   <si>
     <t>高中部</t>
   </si>
@@ -54,6 +54,9 @@
     <t>备注</t>
   </si>
   <si>
+    <t>家长联系方式</t>
+  </si>
+  <si>
     <t>胡成果</t>
   </si>
   <si>
@@ -111,7 +114,7 @@
     <t>黄永秋兰</t>
   </si>
   <si>
-    <t>（化学 59）</t>
+    <t>（化学 59），交1000元，欠400元</t>
   </si>
   <si>
     <t>杨立</t>
@@ -123,6 +126,185 @@
     <t>未交费</t>
   </si>
   <si>
+    <t>宋怡泓</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>交</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>欠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>600</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>刘晓荣</t>
+  </si>
+  <si>
+    <t>二中</t>
+  </si>
+  <si>
+    <t>高二</t>
+  </si>
+  <si>
+    <t>杨老师</t>
+  </si>
+  <si>
+    <t>早上排课尽量早一点</t>
+  </si>
+  <si>
+    <t>冯婷</t>
+  </si>
+  <si>
+    <t>早上排课尽量晚一点</t>
+  </si>
+  <si>
+    <t>王成宝</t>
+  </si>
+  <si>
+    <t>牟岳</t>
+  </si>
+  <si>
+    <t>石老师</t>
+  </si>
+  <si>
+    <t>姜小河</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>尽量上午安排课程，收费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>1400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，欠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>元</t>
+    </r>
+  </si>
+  <si>
+    <t>13135842005</t>
+  </si>
+  <si>
+    <t>李贤</t>
+  </si>
+  <si>
     <t>初中部</t>
   </si>
   <si>
@@ -142,6 +324,24 @@
   </si>
   <si>
     <t>倪萌</t>
+  </si>
+  <si>
+    <t>黄晓宇</t>
+  </si>
+  <si>
+    <t>思源中学</t>
+  </si>
+  <si>
+    <t>九年级</t>
+  </si>
+  <si>
+    <t>朱柏聪</t>
+  </si>
+  <si>
+    <t>九年就</t>
+  </si>
+  <si>
+    <t>黄心仪</t>
   </si>
 </sst>
 </file>
@@ -152,7 +352,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -180,13 +380,39 @@
       <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF800000"/>
+      <name val="Droid Sans Fallback"/>
+      <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF800000"/>
+      <name val="Droid Sans Fallback"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF800000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -231,7 +457,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -240,23 +466,39 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -277,10 +519,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -290,61 +532,57 @@
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="32.0769230769231"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="12.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0"/>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-      <c r="G1" s="0"/>
-      <c r="H1" s="0"/>
-      <c r="I1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>77</v>
@@ -353,27 +591,27 @@
         <v>43</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>10</v>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>64</v>
@@ -382,27 +620,27 @@
         <v>32</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>15335800249</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>10</v>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>76</v>
@@ -411,27 +649,27 @@
         <v>35</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>13100764472</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>10</v>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>78</v>
@@ -440,59 +678,59 @@
         <v>40</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>13857958403</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>10</v>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>80</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>13227408054</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>10</v>
+      <c r="H7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>12</v>
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>30</v>
@@ -503,22 +741,22 @@
       <c r="G8" s="1" t="n">
         <v>18271716006</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>10</v>
+      <c r="H8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>12</v>
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>101</v>
@@ -527,27 +765,27 @@
         <v>50</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>15172947448</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>22</v>
+      <c r="H9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>12</v>
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>90</v>
@@ -556,30 +794,30 @@
         <v>50</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>15587529366</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>22</v>
+      <c r="H10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>12</v>
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>67</v>
@@ -590,22 +828,22 @@
       <c r="G11" s="1" t="n">
         <v>13451011696</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>20</v>
+      <c r="H11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>12</v>
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>66</v>
@@ -614,30 +852,30 @@
         <v>31</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>13635745048</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>20</v>
+      <c r="H12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>12</v>
+      <c r="A13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>50</v>
@@ -648,49 +886,49 @@
       <c r="G13" s="1" t="n">
         <v>15272257345</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>25</v>
+      <c r="H13" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="I13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>12</v>
+      <c r="A14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>47</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>13517189557</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>29</v>
+      <c r="H14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>12</v>
+      <c r="A15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>81</v>
@@ -699,184 +937,403 @@
         <v>70</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>13477215288</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="0"/>
+      <c r="H15" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>12</v>
+      <c r="A16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>33</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>18071923712</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="0"/>
-      <c r="I17" s="0"/>
+      <c r="H16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>13100760515</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="0"/>
-      <c r="I18" s="0"/>
+      <c r="A18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="G18" s="4" t="n">
+        <v>18727677896</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="A19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="4" t="n">
+        <v>15172852482</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="G20" s="4" t="n">
+        <v>18371814221</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>15171095154</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="G22" s="0"/>
+      <c r="H22" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>15171954812</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" s="1" t="n">
+        <v>15818501395</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E33" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I33" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="0"/>
-      <c r="E22" s="0"/>
-      <c r="F22" s="1" t="n">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="G22" s="1" t="n">
+      <c r="G34" s="1" t="n">
         <v>13477255448</v>
       </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="1" t="n">
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="1" t="n">
+      <c r="E35" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G23" s="1" t="n">
+      <c r="G35" s="1" t="n">
         <v>13403088611</v>
       </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="1" t="n">
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E24" s="1" t="n">
+      <c r="E36" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G24" s="1" t="n">
+      <c r="G36" s="1" t="n">
         <v>18872131370</v>
       </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>15172842580</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>18372525023</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>13197217793</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -902,7 +1359,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="4" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="10" width="8.57085020242915"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -928,7 +1385,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="4" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="10" width="8.57085020242915"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/students_names.xlsx
+++ b/students_names.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="85">
   <si>
     <t>高中部</t>
   </si>
@@ -57,6 +57,9 @@
     <t>家长联系方式</t>
   </si>
   <si>
+    <t>缴费</t>
+  </si>
+  <si>
     <t>胡成果</t>
   </si>
   <si>
@@ -129,34 +132,6 @@
     <t>宋怡泓</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF800000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF800000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>交</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF800000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>400</t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -165,45 +140,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>元</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF800000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF800000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>欠</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF800000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>600</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF800000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元</t>
+      <t>(交400元,欠600元</t>
     </r>
     <r>
       <rPr>
@@ -250,53 +187,7 @@
     <t>姜小河</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF800000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>尽量上午安排课程，收费</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF800000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>1400</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF800000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，欠</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF800000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF800000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>元</t>
-    </r>
+    <t>尽量上午安排课程，收费1400，欠100元</t>
   </si>
   <si>
     <t>13135842005</t>
@@ -305,21 +196,54 @@
     <t>李贤</t>
   </si>
   <si>
+    <t>杨桄</t>
+  </si>
+  <si>
+    <t>丁新</t>
+  </si>
+  <si>
+    <t>文桃</t>
+  </si>
+  <si>
+    <t>袁恩莉</t>
+  </si>
+  <si>
+    <t>一中</t>
+  </si>
+  <si>
+    <t>黄老师</t>
+  </si>
+  <si>
+    <t>谭莉</t>
+  </si>
+  <si>
+    <t>肖老师</t>
+  </si>
+  <si>
+    <t>刘怡君</t>
+  </si>
+  <si>
+    <t>刘锐</t>
+  </si>
+  <si>
+    <t>向淑</t>
+  </si>
+  <si>
+    <t>周潇</t>
+  </si>
+  <si>
+    <t>吴文娟</t>
+  </si>
+  <si>
     <t>初中部</t>
   </si>
   <si>
-    <t>黄博文</t>
+    <t>胡美玲</t>
   </si>
   <si>
     <t>清外</t>
   </si>
   <si>
-    <t>七年级</t>
-  </si>
-  <si>
-    <t>胡美玲</t>
-  </si>
-  <si>
     <t>八年级</t>
   </si>
   <si>
@@ -342,6 +266,36 @@
   </si>
   <si>
     <t>黄心仪</t>
+  </si>
+  <si>
+    <t>小学部</t>
+  </si>
+  <si>
+    <t>杨俊逸</t>
+  </si>
+  <si>
+    <t>万州</t>
+  </si>
+  <si>
+    <t>五年级</t>
+  </si>
+  <si>
+    <t>13593614222</t>
+  </si>
+  <si>
+    <t>王贝</t>
+  </si>
+  <si>
+    <t>实小</t>
+  </si>
+  <si>
+    <t>邹栋兰</t>
+  </si>
+  <si>
+    <t>丁俊杰</t>
+  </si>
+  <si>
+    <t>三年级</t>
   </si>
 </sst>
 </file>
@@ -352,7 +306,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -384,22 +338,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Droid Sans Fallback"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF800000"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF800000"/>
-      <name val="Droid Sans Fallback"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -412,6 +354,25 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Droid Sans Fallback"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF800000"/>
+      <name val="Droid Sans Fallback"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -457,7 +418,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -470,7 +431,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -482,24 +443,44 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -519,21 +500,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="1" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="32.0769230769231"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="12.5668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="12.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -541,6 +523,16 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+      <c r="G1" s="0"/>
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
+      <c r="J1" s="0"/>
+      <c r="K1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
@@ -573,16 +565,19 @@
       <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="K2" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>77</v>
@@ -591,27 +586,31 @@
         <v>43</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J3" s="0"/>
+      <c r="K3" s="1" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>64</v>
@@ -620,27 +619,31 @@
         <v>32</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>15335800249</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J4" s="0"/>
+      <c r="K4" s="1" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>76</v>
@@ -649,27 +652,31 @@
         <v>35</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>13100764472</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J5" s="0"/>
+      <c r="K5" s="1" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>78</v>
@@ -678,59 +685,67 @@
         <v>40</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>13857958403</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J6" s="0"/>
+      <c r="K6" s="1" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>80</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>13227408054</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J7" s="0"/>
+      <c r="K7" s="1" t="n">
+        <v>600</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>30</v>
@@ -742,21 +757,25 @@
         <v>18271716006</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J8" s="0"/>
+      <c r="K8" s="1" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>101</v>
@@ -765,27 +784,31 @@
         <v>50</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>15172947448</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="J9" s="0"/>
+      <c r="K9" s="1" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>90</v>
@@ -794,30 +817,34 @@
         <v>50</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>15587529366</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="J10" s="0"/>
+      <c r="K10" s="1" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>67</v>
@@ -829,21 +856,25 @@
         <v>13451011696</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="J11" s="0"/>
+      <c r="K11" s="1" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>66</v>
@@ -852,30 +883,34 @@
         <v>31</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>13635745048</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="J12" s="0"/>
+      <c r="K12" s="1" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>50</v>
@@ -887,48 +922,56 @@
         <v>15272257345</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I13" s="4"/>
+      <c r="J13" s="0"/>
+      <c r="K13" s="1" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>47</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>13517189557</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="J14" s="0"/>
+      <c r="K14" s="1" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>81</v>
@@ -937,53 +980,62 @@
         <v>70</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>13477215288</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="I15" s="0"/>
+      <c r="J15" s="0"/>
+      <c r="K15" s="1" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>33</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>18071923712</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="J16" s="0"/>
+      <c r="K16" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>80</v>
@@ -991,31 +1043,38 @@
       <c r="E17" s="1" t="n">
         <v>40</v>
       </c>
+      <c r="F17" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="G17" s="1" t="n">
         <v>13100760515</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="J17" s="0"/>
+      <c r="K17" s="1" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>40</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" s="4" t="n">
         <v>50</v>
@@ -1024,56 +1083,64 @@
         <v>18727677896</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="J18" s="0"/>
+      <c r="K18" s="1" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>50</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G19" s="4" t="n">
         <v>15172852482</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="J19" s="0"/>
+      <c r="K19" s="1" t="n">
+        <v>600</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>20</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F20" s="4" t="n">
         <v>20</v>
@@ -1082,50 +1149,58 @@
         <v>18371814221</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="J20" s="0"/>
+      <c r="K20" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>90</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>15171095154</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="J21" s="0"/>
+      <c r="K21" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>13</v>
+      <c r="A22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>60</v>
@@ -1136,32 +1211,37 @@
       <c r="F22" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G22" s="0"/>
-      <c r="H22" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J22" s="9" t="s">
+      <c r="G22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="J22" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>1400</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>13</v>
+      <c r="A23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>80</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F23" s="1" t="n">
         <v>50</v>
@@ -1169,170 +1249,787 @@
       <c r="G23" s="1" t="n">
         <v>15171954812</v>
       </c>
-      <c r="H23" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="H23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="0"/>
       <c r="J23" s="1" t="n">
         <v>15818501395</v>
       </c>
+      <c r="K23" s="1" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>18271728974</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="0"/>
+      <c r="J24" s="1" t="n">
+        <v>13044850086</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>15027238361</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="0"/>
+      <c r="J25" s="10" t="n">
+        <v>13402732346</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="G26" s="0"/>
+      <c r="H26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <v>13517132733</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>15071884281</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" s="0"/>
+      <c r="J27" s="1" t="n">
+        <v>13454073122</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>18727706742</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I28" s="0"/>
+      <c r="J28" s="1" t="n">
+        <v>15172890880</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>15971773949</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="0"/>
+      <c r="J29" s="1" t="n">
+        <v>15972856457</v>
+      </c>
+      <c r="K29" s="1" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I30" s="0"/>
+      <c r="J30" s="13" t="n">
+        <v>15971822577</v>
+      </c>
+      <c r="K30" s="1" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>15502753766</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J31" s="1" t="n">
+        <v>13135851555</v>
+      </c>
+      <c r="K31" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="13" t="n">
+        <v>13997787735</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J32" s="1" t="n">
+        <v>13477950867</v>
+      </c>
+      <c r="K32" s="1" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>13177109399</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J33" s="1" t="n">
+        <v>15172976888</v>
+      </c>
+      <c r="K33" s="1" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0"/>
+      <c r="B34" s="0"/>
+      <c r="C34" s="0"/>
+      <c r="D34" s="0"/>
+      <c r="E34" s="0"/>
+      <c r="F34" s="0"/>
+      <c r="G34" s="0"/>
+      <c r="H34" s="0"/>
+      <c r="I34" s="0"/>
+      <c r="J34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0"/>
+      <c r="B35" s="0"/>
+      <c r="C35" s="0"/>
+      <c r="D35" s="0"/>
+      <c r="E35" s="0"/>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0"/>
+      <c r="H35" s="0"/>
+      <c r="I35" s="0"/>
+      <c r="J35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0"/>
+      <c r="B36" s="0"/>
+      <c r="C36" s="0"/>
+      <c r="D36" s="0"/>
+      <c r="E36" s="0"/>
+      <c r="F36" s="0"/>
+      <c r="G36" s="0"/>
+      <c r="H36" s="0"/>
+      <c r="I36" s="0"/>
+      <c r="J36" s="0"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0"/>
+      <c r="B37" s="0"/>
+      <c r="C37" s="0"/>
+      <c r="D37" s="0"/>
+      <c r="E37" s="0"/>
+      <c r="F37" s="0"/>
+      <c r="G37" s="0"/>
+      <c r="H37" s="0"/>
+      <c r="I37" s="0"/>
+      <c r="J37" s="0"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0"/>
+      <c r="B38" s="0"/>
+      <c r="C38" s="0"/>
+      <c r="D38" s="0"/>
+      <c r="E38" s="0"/>
+      <c r="F38" s="0"/>
+      <c r="G38" s="0"/>
+      <c r="H38" s="0"/>
+      <c r="I38" s="0"/>
+      <c r="J38" s="0"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0"/>
+      <c r="B39" s="0"/>
+      <c r="C39" s="0"/>
+      <c r="D39" s="0"/>
+      <c r="E39" s="0"/>
+      <c r="F39" s="0"/>
+      <c r="G39" s="0"/>
+      <c r="H39" s="0"/>
+      <c r="I39" s="0"/>
+      <c r="J39" s="0"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0"/>
+      <c r="B40" s="0"/>
+      <c r="C40" s="0"/>
+      <c r="D40" s="0"/>
+      <c r="E40" s="0"/>
+      <c r="F40" s="0"/>
+      <c r="G40" s="0"/>
+      <c r="H40" s="0"/>
+      <c r="I40" s="0"/>
+      <c r="J40" s="0"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0"/>
+      <c r="B41" s="0"/>
+      <c r="C41" s="0"/>
+      <c r="D41" s="0"/>
+      <c r="E41" s="0"/>
+      <c r="F41" s="0"/>
+      <c r="G41" s="0"/>
+      <c r="H41" s="0"/>
+      <c r="I41" s="0"/>
+      <c r="J41" s="0"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0"/>
+      <c r="B42" s="0"/>
+      <c r="C42" s="0"/>
+      <c r="D42" s="0"/>
+      <c r="E42" s="0"/>
+      <c r="F42" s="0"/>
+      <c r="G42" s="0"/>
+      <c r="H42" s="0"/>
+      <c r="I42" s="0"/>
+      <c r="J42" s="0"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0"/>
+      <c r="B43" s="0"/>
+      <c r="C43" s="0"/>
+      <c r="D43" s="0"/>
+      <c r="E43" s="0"/>
+      <c r="F43" s="0"/>
+      <c r="G43" s="0"/>
+      <c r="H43" s="0"/>
+      <c r="I43" s="0"/>
+      <c r="J43" s="0"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J45" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" s="0"/>
+      <c r="G46" s="1" t="n">
+        <v>13403088611</v>
+      </c>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="1" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" s="0"/>
+      <c r="G47" s="1" t="n">
+        <v>18872131370</v>
+      </c>
+      <c r="H47" s="4"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="1" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" s="0"/>
+      <c r="E48" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="F48" s="0"/>
+      <c r="G48" s="1" t="n">
+        <v>15172842580</v>
+      </c>
+      <c r="H48" s="0"/>
+      <c r="I48" s="0"/>
+      <c r="J48" s="1" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" s="0"/>
+      <c r="E49" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="F49" s="0"/>
+      <c r="G49" s="1" t="n">
+        <v>18372525023</v>
+      </c>
+      <c r="H49" s="0"/>
+      <c r="I49" s="0"/>
+      <c r="J49" s="1" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="E50" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
+      <c r="F50" s="0"/>
+      <c r="G50" s="1" t="n">
+        <v>13197217793</v>
+      </c>
+      <c r="H50" s="0"/>
+      <c r="I50" s="0"/>
+      <c r="J50" s="1" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0"/>
+      <c r="B51" s="0"/>
+      <c r="C51" s="0"/>
+      <c r="D51" s="0"/>
+      <c r="E51" s="0"/>
+      <c r="F51" s="0"/>
+      <c r="G51" s="0"/>
+      <c r="H51" s="0"/>
+      <c r="I51" s="0"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0"/>
+      <c r="B52" s="0"/>
+      <c r="C52" s="0"/>
+      <c r="D52" s="0"/>
+      <c r="E52" s="0"/>
+      <c r="F52" s="0"/>
+      <c r="G52" s="0"/>
+      <c r="H52" s="0"/>
+      <c r="I52" s="0"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0"/>
+      <c r="B53" s="0"/>
+      <c r="C53" s="0"/>
+      <c r="D53" s="0"/>
+      <c r="E53" s="0"/>
+      <c r="F53" s="0"/>
+      <c r="G53" s="0"/>
+      <c r="H53" s="0"/>
+      <c r="I53" s="0"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0"/>
+      <c r="B54" s="0"/>
+      <c r="C54" s="0"/>
+      <c r="D54" s="0"/>
+      <c r="E54" s="0"/>
+      <c r="F54" s="0"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0"/>
+      <c r="B55" s="0"/>
+      <c r="C55" s="0"/>
+      <c r="D55" s="0"/>
+      <c r="E55" s="0"/>
+      <c r="F55" s="0"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" s="0"/>
+      <c r="C56" s="0"/>
+      <c r="D56" s="0"/>
+      <c r="E56" s="0"/>
+      <c r="F56" s="0"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I33" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F34" s="1" t="n">
+      <c r="F57" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E58" s="10"/>
+      <c r="F58" s="1" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G34" s="1" t="n">
-        <v>13477255448</v>
-      </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" s="1" t="n">
-        <v>13403088611</v>
-      </c>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" s="1" t="n">
-        <v>18872131370</v>
-      </c>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="G37" s="1" t="n">
-        <v>15172842580</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F38" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="G38" s="1" t="n">
-        <v>18372525023</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D39" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="E39" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="G39" s="1" t="n">
-        <v>13197217793</v>
+      <c r="B59" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D59" s="1" t="n">
+        <v>13593614222</v>
+      </c>
+      <c r="F59" s="1" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D60" s="1" t="n">
+        <v>13593606827</v>
+      </c>
+      <c r="F60" s="1" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" s="1" t="n">
+        <v>13044838367</v>
+      </c>
+      <c r="F61" s="1" t="n">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -1359,7 +2056,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="10" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="7" width="8.57085020242915"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1385,7 +2082,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="10" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="7" width="8.57085020242915"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/students_names.xlsx
+++ b/students_names.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="89">
   <si>
     <t>高中部</t>
   </si>
@@ -132,6 +132,16 @@
     <t>宋怡泓</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -140,7 +150,67 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>(交400元,欠600元</t>
+      <t>交</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>欠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>600</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元</t>
     </r>
     <r>
       <rPr>
@@ -235,6 +305,18 @@
     <t>吴文娟</t>
   </si>
   <si>
+    <t>扬帆</t>
+  </si>
+  <si>
+    <t>方老师</t>
+  </si>
+  <si>
+    <t>张王秋</t>
+  </si>
+  <si>
+    <t>吕老师</t>
+  </si>
+  <si>
     <t>初中部</t>
   </si>
   <si>
@@ -306,7 +388,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -365,12 +447,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF800000"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
@@ -418,7 +494,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -447,6 +523,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -471,16 +551,8 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -502,20 +574,19 @@
   </sheetPr>
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I35" activeCellId="0" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1052,7 +1123,7 @@
       <c r="H17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="7" t="s">
         <v>36</v>
       </c>
       <c r="J17" s="0"/>
@@ -1211,7 +1282,7 @@
       <c r="F22" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H22" s="2" t="s">
@@ -1220,7 +1291,7 @@
       <c r="I22" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="J22" s="9" t="s">
         <v>49</v>
       </c>
       <c r="K22" s="1" t="n">
@@ -1261,13 +1332,13 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="9" t="s">
+      <c r="B24" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="1" t="n">
@@ -1282,7 +1353,7 @@
       <c r="G24" s="1" t="n">
         <v>18271728974</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="10" t="s">
         <v>27</v>
       </c>
       <c r="I24" s="0"/>
@@ -1294,13 +1365,13 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="9" t="s">
+      <c r="B25" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="1" t="n">
@@ -1315,11 +1386,11 @@
       <c r="G25" s="1" t="n">
         <v>15027238361</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="10" t="s">
         <v>27</v>
       </c>
       <c r="I25" s="0"/>
-      <c r="J25" s="10" t="n">
+      <c r="J25" s="11" t="n">
         <v>13402732346</v>
       </c>
       <c r="K25" s="1" t="n">
@@ -1327,13 +1398,13 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="9" t="s">
+      <c r="B26" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="0" t="s">
@@ -1346,10 +1417,10 @@
         <v>90</v>
       </c>
       <c r="G26" s="0"/>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="I26" s="12" t="s">
         <v>34</v>
       </c>
       <c r="J26" s="1" t="n">
@@ -1360,13 +1431,13 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="1" t="n">
@@ -1381,7 +1452,7 @@
       <c r="G27" s="1" t="n">
         <v>15071884281</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="10" t="s">
         <v>56</v>
       </c>
       <c r="I27" s="0"/>
@@ -1393,13 +1464,13 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="0" t="s">
@@ -1414,7 +1485,7 @@
       <c r="G28" s="1" t="n">
         <v>18727706742</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="10" t="s">
         <v>58</v>
       </c>
       <c r="I28" s="0"/>
@@ -1426,13 +1497,13 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="9" t="s">
+      <c r="B29" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="1" t="n">
@@ -1447,7 +1518,7 @@
       <c r="G29" s="1" t="n">
         <v>15971773949</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="10" t="s">
         <v>27</v>
       </c>
       <c r="I29" s="0"/>
@@ -1459,13 +1530,13 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D30" s="1" t="n">
@@ -1477,11 +1548,12 @@
       <c r="F30" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="H30" s="12" t="s">
+      <c r="G30" s="0"/>
+      <c r="H30" s="10" t="s">
         <v>40</v>
       </c>
       <c r="I30" s="0"/>
-      <c r="J30" s="13" t="n">
+      <c r="J30" s="11" t="n">
         <v>15971822577</v>
       </c>
       <c r="K30" s="1" t="n">
@@ -1489,13 +1561,13 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="12" t="s">
+      <c r="B31" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="1" t="n">
@@ -1510,10 +1582,10 @@
       <c r="G31" s="1" t="n">
         <v>15502753766</v>
       </c>
-      <c r="H31" s="12" t="s">
+      <c r="H31" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I31" s="14" t="s">
+      <c r="I31" s="12" t="s">
         <v>34</v>
       </c>
       <c r="J31" s="1" t="n">
@@ -1524,13 +1596,13 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="12" t="s">
+      <c r="B32" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="1" t="n">
@@ -1542,13 +1614,13 @@
       <c r="F32" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="13" t="n">
+      <c r="G32" s="11" t="n">
         <v>13997787735</v>
       </c>
-      <c r="H32" s="12" t="s">
+      <c r="H32" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I32" s="12" t="s">
+      <c r="I32" s="10" t="s">
         <v>28</v>
       </c>
       <c r="J32" s="1" t="n">
@@ -1559,13 +1631,13 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="12" t="s">
+      <c r="B33" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="0" t="s">
@@ -1577,13 +1649,13 @@
       <c r="F33" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G33" s="0" t="n">
+      <c r="G33" s="1" t="n">
         <v>13177109399</v>
       </c>
-      <c r="H33" s="12" t="s">
+      <c r="H33" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="12" t="s">
+      <c r="I33" s="10" t="s">
         <v>28</v>
       </c>
       <c r="J33" s="1" t="n">
@@ -1594,28 +1666,74 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0"/>
-      <c r="B34" s="0"/>
-      <c r="C34" s="0"/>
-      <c r="D34" s="0"/>
-      <c r="E34" s="0"/>
-      <c r="F34" s="0"/>
-      <c r="G34" s="0"/>
-      <c r="H34" s="0"/>
-      <c r="I34" s="0"/>
-      <c r="J34" s="0"/>
+      <c r="A34" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>18372540250</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J34" s="1" t="n">
+        <v>13636287299</v>
+      </c>
+      <c r="K34" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0"/>
-      <c r="B35" s="0"/>
-      <c r="C35" s="0"/>
-      <c r="D35" s="0"/>
-      <c r="E35" s="0"/>
-      <c r="F35" s="0"/>
-      <c r="G35" s="0"/>
-      <c r="H35" s="0"/>
-      <c r="I35" s="0"/>
-      <c r="J35" s="0"/>
+      <c r="A35" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>18872817398</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>15971708966</v>
+      </c>
+      <c r="K35" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0"/>
@@ -1715,7 +1833,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1725,6 +1843,7 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
+      <c r="J44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
@@ -1754,19 +1873,19 @@
       <c r="I45" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J45" s="15" t="s">
+      <c r="J45" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D46" s="1" t="n">
         <v>1</v>
@@ -1786,13 +1905,13 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D47" s="1" t="n">
         <v>1</v>
@@ -1812,13 +1931,13 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D48" s="0"/>
       <c r="E48" s="1" t="n">
@@ -1836,16 +1955,16 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D49" s="0"/>
-      <c r="E49" s="10" t="n">
+      <c r="E49" s="11" t="n">
         <v>20</v>
       </c>
       <c r="F49" s="0"/>
@@ -1860,13 +1979,13 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D50" s="1" t="n">
         <v>90</v>
@@ -1935,7 +2054,7 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B56" s="0"/>
       <c r="C56" s="0"/>
@@ -1959,37 +2078,37 @@
       <c r="E57" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F57" s="12" t="s">
+      <c r="F57" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E58" s="10"/>
+        <v>82</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E58" s="11"/>
       <c r="F58" s="1" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D59" s="1" t="n">
         <v>13593614222</v>
@@ -2000,13 +2119,13 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="D60" s="1" t="n">
         <v>13593606827</v>
@@ -2016,14 +2135,14 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>84</v>
+      <c r="A61" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="D61" s="1" t="n">
         <v>13044838367</v>
@@ -2056,7 +2175,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="7" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="8" width="8.57085020242915"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2082,7 +2201,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="7" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="8" width="8.57085020242915"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/students_names.xlsx
+++ b/students_names.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="88">
   <si>
     <t>高中部</t>
   </si>
@@ -132,6 +132,15 @@
     <t>宋怡泓</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -139,16 +148,6 @@
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
         <charset val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF800000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
       </rPr>
       <t>交</t>
     </r>
@@ -158,7 +157,6 @@
         <color rgb="FF800000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>400</t>
     </r>
@@ -166,9 +164,9 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF800000"/>
-        <rFont val="宋体"/>
+        <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>元</t>
     </r>
@@ -178,7 +176,6 @@
         <color rgb="FF800000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>,</t>
     </r>
@@ -186,9 +183,9 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF800000"/>
-        <rFont val="宋体"/>
+        <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>欠</t>
     </r>
@@ -198,7 +195,6 @@
         <color rgb="FF800000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>600</t>
     </r>
@@ -257,9 +253,6 @@
     <t>姜小河</t>
   </si>
   <si>
-    <t>尽量上午安排课程，收费1400，欠100元</t>
-  </si>
-  <si>
     <t>13135842005</t>
   </si>
   <si>
@@ -388,7 +381,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -428,6 +421,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF800000"/>
+      <name val="Droid Sans Fallback"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF800000"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -438,18 +437,6 @@
       <name val="宋体"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Droid Sans Fallback"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF800000"/>
-      <name val="Droid Sans Fallback"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -494,7 +481,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -523,15 +510,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -539,19 +522,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -574,8 +549,8 @@
   </sheetPr>
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I35" activeCellId="0" sqref="I35"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J33" activeCellId="0" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -585,8 +560,8 @@
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="33.2064777327935"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1123,7 +1098,7 @@
       <c r="H17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="6" t="s">
         <v>36</v>
       </c>
       <c r="J17" s="0"/>
@@ -1282,17 +1257,15 @@
       <c r="F22" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="6"/>
+      <c r="J22" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="K22" s="1" t="n">
         <v>1400</v>
@@ -1300,7 +1273,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>13</v>
@@ -1332,13 +1305,13 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="10" t="s">
+      <c r="A24" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="1" t="n">
@@ -1353,7 +1326,7 @@
       <c r="G24" s="1" t="n">
         <v>18271728974</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="H24" s="9" t="s">
         <v>27</v>
       </c>
       <c r="I24" s="0"/>
@@ -1365,13 +1338,13 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="10" t="s">
+      <c r="A25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="1" t="n">
@@ -1386,11 +1359,11 @@
       <c r="G25" s="1" t="n">
         <v>15027238361</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="9" t="s">
         <v>27</v>
       </c>
       <c r="I25" s="0"/>
-      <c r="J25" s="11" t="n">
+      <c r="J25" s="10" t="n">
         <v>13402732346</v>
       </c>
       <c r="K25" s="1" t="n">
@@ -1398,13 +1371,13 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="10" t="s">
+      <c r="A26" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="0" t="s">
@@ -1417,10 +1390,10 @@
         <v>90</v>
       </c>
       <c r="G26" s="0"/>
-      <c r="H26" s="10" t="s">
+      <c r="H26" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I26" s="12" t="s">
+      <c r="I26" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J26" s="1" t="n">
@@ -1431,13 +1404,13 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="1" t="n">
@@ -1452,8 +1425,8 @@
       <c r="G27" s="1" t="n">
         <v>15071884281</v>
       </c>
-      <c r="H27" s="10" t="s">
-        <v>56</v>
+      <c r="H27" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="I27" s="0"/>
       <c r="J27" s="1" t="n">
@@ -1464,13 +1437,13 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="10" t="s">
+      <c r="A28" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="0" t="s">
@@ -1485,8 +1458,8 @@
       <c r="G28" s="1" t="n">
         <v>18727706742</v>
       </c>
-      <c r="H28" s="10" t="s">
-        <v>58</v>
+      <c r="H28" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="I28" s="0"/>
       <c r="J28" s="1" t="n">
@@ -1497,13 +1470,13 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="10" t="s">
+      <c r="A29" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="1" t="n">
@@ -1518,7 +1491,7 @@
       <c r="G29" s="1" t="n">
         <v>15971773949</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="H29" s="9" t="s">
         <v>27</v>
       </c>
       <c r="I29" s="0"/>
@@ -1530,13 +1503,13 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="10" t="s">
+      <c r="A30" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D30" s="1" t="n">
@@ -1549,11 +1522,11 @@
         <v>90</v>
       </c>
       <c r="G30" s="0"/>
-      <c r="H30" s="10" t="s">
+      <c r="H30" s="9" t="s">
         <v>40</v>
       </c>
       <c r="I30" s="0"/>
-      <c r="J30" s="11" t="n">
+      <c r="J30" s="10" t="n">
         <v>15971822577</v>
       </c>
       <c r="K30" s="1" t="n">
@@ -1561,13 +1534,13 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="10" t="s">
+      <c r="A31" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="1" t="n">
@@ -1582,10 +1555,10 @@
       <c r="G31" s="1" t="n">
         <v>15502753766</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="H31" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I31" s="12" t="s">
+      <c r="I31" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J31" s="1" t="n">
@@ -1596,13 +1569,13 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="10" t="s">
+      <c r="A32" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="1" t="n">
@@ -1614,13 +1587,13 @@
       <c r="F32" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="11" t="n">
+      <c r="G32" s="10" t="n">
         <v>13997787735</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H32" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I32" s="10" t="s">
+      <c r="I32" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J32" s="1" t="n">
@@ -1631,13 +1604,13 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="10" t="s">
+      <c r="A33" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="0" t="s">
@@ -1652,10 +1625,10 @@
       <c r="G33" s="1" t="n">
         <v>13177109399</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="H33" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="10" t="s">
+      <c r="I33" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J33" s="1" t="n">
@@ -1666,13 +1639,13 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="13" t="s">
+      <c r="A34" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="1" t="n">
@@ -1687,12 +1660,10 @@
       <c r="G34" s="1" t="n">
         <v>18372540250</v>
       </c>
-      <c r="H34" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="I34" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="H34" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I34" s="11"/>
       <c r="J34" s="1" t="n">
         <v>13636287299</v>
       </c>
@@ -1701,13 +1672,13 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="13" t="s">
+      <c r="A35" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D35" s="1" t="n">
@@ -1722,13 +1693,13 @@
       <c r="G35" s="1" t="n">
         <v>18872817398</v>
       </c>
-      <c r="H35" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I35" s="14" t="s">
+      <c r="H35" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I35" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="J35" s="0" t="n">
+      <c r="J35" s="1" t="n">
         <v>15971708966</v>
       </c>
       <c r="K35" s="1" t="n">
@@ -1833,7 +1804,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1879,13 +1850,13 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="D46" s="1" t="n">
         <v>1</v>
@@ -1905,13 +1876,13 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="D47" s="1" t="n">
         <v>1</v>
@@ -1931,13 +1902,13 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="D48" s="0"/>
       <c r="E48" s="1" t="n">
@@ -1955,16 +1926,16 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="D49" s="0"/>
-      <c r="E49" s="11" t="n">
+      <c r="E49" s="10" t="n">
         <v>20</v>
       </c>
       <c r="F49" s="0"/>
@@ -1979,13 +1950,13 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="D50" s="1" t="n">
         <v>90</v>
@@ -2054,7 +2025,7 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B56" s="0"/>
       <c r="C56" s="0"/>
@@ -2078,37 +2049,37 @@
       <c r="E57" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F57" s="10" t="s">
+      <c r="F57" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="D58" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D58" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E58" s="11"/>
+      <c r="E58" s="10"/>
       <c r="F58" s="1" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="C59" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D59" s="1" t="n">
         <v>13593614222</v>
@@ -2119,13 +2090,13 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D60" s="1" t="n">
         <v>13593606827</v>
@@ -2136,13 +2107,13 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="D61" s="1" t="n">
         <v>13044838367</v>
@@ -2175,7 +2146,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="8" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="7" width="8.57085020242915"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2201,7 +2172,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="8" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="7" width="8.57085020242915"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/students_names.xlsx
+++ b/students_names.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="89">
   <si>
     <t>高中部</t>
   </si>
@@ -117,87 +117,15 @@
     <t>黄永秋兰</t>
   </si>
   <si>
-    <t>（化学 59），交1000元，欠400元</t>
-  </si>
-  <si>
     <t>杨立</t>
   </si>
   <si>
     <t>陈沪琴</t>
   </si>
   <si>
-    <t>未交费</t>
-  </si>
-  <si>
     <t>宋怡泓</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF800000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF800000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>交</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF800000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>400</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF800000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF800000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF800000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>欠</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF800000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>600</t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -206,7 +134,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>元</t>
+      <t>(交400元,欠600元</t>
     </r>
     <r>
       <rPr>
@@ -244,7 +172,10 @@
     <t>王成宝</t>
   </si>
   <si>
-    <t>牟岳</t>
+    <t>未交费</t>
+  </si>
+  <si>
+    <t>牟月</t>
   </si>
   <si>
     <t>石老师</t>
@@ -298,7 +229,7 @@
     <t>吴文娟</t>
   </si>
   <si>
-    <t>扬帆</t>
+    <t>杨帆</t>
   </si>
   <si>
     <t>方老师</t>
@@ -371,6 +302,12 @@
   </si>
   <si>
     <t>三年级</t>
+  </si>
+  <si>
+    <t>黄柄清</t>
+  </si>
+  <si>
+    <t>二年级</t>
   </si>
 </sst>
 </file>
@@ -421,12 +358,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF800000"/>
-      <name val="Droid Sans Fallback"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF800000"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -437,6 +368,12 @@
       <name val="宋体"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Droid Sans Fallback"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -481,7 +418,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -514,7 +451,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -522,12 +459,16 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -547,10 +488,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J33" activeCellId="0" sqref="J33"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -560,8 +501,8 @@
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="33.5263157894737"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -986,8 +927,8 @@
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>15</v>
+      <c r="D14" s="4" t="n">
+        <v>90</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>47</v>
@@ -1001,9 +942,7 @@
       <c r="H14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="I14" s="6"/>
       <c r="J14" s="0"/>
       <c r="K14" s="1" t="n">
         <v>1000</v>
@@ -1011,7 +950,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>13</v>
@@ -1042,7 +981,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>13</v>
@@ -1065,9 +1004,7 @@
       <c r="H16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="I16" s="6"/>
       <c r="J16" s="0"/>
       <c r="K16" s="1" t="n">
         <v>0</v>
@@ -1075,7 +1012,7 @@
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>13</v>
@@ -1099,7 +1036,7 @@
         <v>27</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J17" s="0"/>
       <c r="K17" s="1" t="n">
@@ -1108,13 +1045,13 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>40</v>
@@ -1129,10 +1066,10 @@
         <v>18727677896</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J18" s="0"/>
       <c r="K18" s="1" t="n">
@@ -1141,13 +1078,13 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>50</v>
@@ -1162,10 +1099,10 @@
         <v>15172852482</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J19" s="0"/>
       <c r="K19" s="1" t="n">
@@ -1174,13 +1111,13 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>20</v>
@@ -1195,10 +1132,10 @@
         <v>18371814221</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="J20" s="0"/>
       <c r="K20" s="1" t="n">
@@ -1207,7 +1144,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>13</v>
@@ -1228,10 +1165,10 @@
         <v>15171095154</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="J21" s="0"/>
       <c r="K21" s="1" t="n">
@@ -1240,7 +1177,7 @@
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>13</v>
@@ -1261,11 +1198,11 @@
         <v>15</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K22" s="1" t="n">
         <v>1400</v>
@@ -1273,7 +1210,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>13</v>
@@ -1306,7 +1243,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>13</v>
@@ -1339,7 +1276,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>13</v>
@@ -1372,7 +1309,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>13</v>
@@ -1393,9 +1330,7 @@
       <c r="H26" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I26" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="I26" s="11"/>
       <c r="J26" s="1" t="n">
         <v>13517132733</v>
       </c>
@@ -1405,10 +1340,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>54</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>14</v>
@@ -1426,7 +1361,7 @@
         <v>15071884281</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I27" s="0"/>
       <c r="J27" s="1" t="n">
@@ -1438,10 +1373,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>14</v>
@@ -1459,7 +1394,7 @@
         <v>18727706742</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I28" s="0"/>
       <c r="J28" s="1" t="n">
@@ -1471,7 +1406,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>13</v>
@@ -1504,13 +1439,13 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>90</v>
@@ -1523,7 +1458,7 @@
       </c>
       <c r="G30" s="0"/>
       <c r="H30" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I30" s="0"/>
       <c r="J30" s="10" t="n">
@@ -1535,7 +1470,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>13</v>
@@ -1559,7 +1494,7 @@
         <v>27</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="J31" s="1" t="n">
         <v>13135851555</v>
@@ -1570,7 +1505,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>13</v>
@@ -1605,7 +1540,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>13</v>
@@ -1640,7 +1575,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>13</v>
@@ -1661,7 +1596,7 @@
         <v>18372540250</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="1" t="n">
@@ -1673,7 +1608,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>13</v>
@@ -1694,11 +1629,9 @@
         <v>18872817398</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>34</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="I35" s="11"/>
       <c r="J35" s="1" t="n">
         <v>15971708966</v>
       </c>
@@ -1804,7 +1737,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1850,13 +1783,13 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D46" s="1" t="n">
         <v>1</v>
@@ -1876,13 +1809,13 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D47" s="1" t="n">
         <v>1</v>
@@ -1902,13 +1835,13 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="D48" s="0"/>
       <c r="E48" s="1" t="n">
@@ -1926,13 +1859,13 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="D49" s="0"/>
       <c r="E49" s="10" t="n">
@@ -1950,13 +1883,13 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D50" s="1" t="n">
         <v>90</v>
@@ -2025,7 +1958,7 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B56" s="0"/>
       <c r="C56" s="0"/>
@@ -2055,16 +1988,16 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="D58" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="E58" s="10"/>
       <c r="F58" s="1" t="n">
@@ -2073,13 +2006,13 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="C59" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D59" s="1" t="n">
         <v>13593614222</v>
@@ -2090,13 +2023,13 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D60" s="1" t="n">
         <v>13593606827</v>
@@ -2107,18 +2040,35 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="D61" s="1" t="n">
         <v>13044838367</v>
       </c>
       <c r="F61" s="1" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D62" s="1" t="n">
+        <v>13872713300</v>
+      </c>
+      <c r="F62" s="1" t="n">
         <v>300</v>
       </c>
     </row>

--- a/students_names.xlsx
+++ b/students_names.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="90">
   <si>
     <t>高中部</t>
   </si>
@@ -126,6 +126,16 @@
     <t>宋怡泓</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -134,7 +144,67 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>(交400元,欠600元</t>
+      <t>交</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>欠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>600</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元</t>
     </r>
     <r>
       <rPr>
@@ -239,6 +309,9 @@
   </si>
   <si>
     <t>吕老师</t>
+  </si>
+  <si>
+    <t>覃立政</t>
   </si>
   <si>
     <t>初中部</t>
@@ -418,7 +491,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -447,6 +520,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -467,8 +544,8 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -490,8 +567,8 @@
   </sheetPr>
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K36" activeCellId="0" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -501,8 +578,8 @@
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="33.8502024291498"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1035,7 +1112,7 @@
       <c r="H17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="7" t="s">
         <v>34</v>
       </c>
       <c r="J17" s="0"/>
@@ -1194,14 +1271,14 @@
       <c r="F22" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>45</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="8" t="s">
+      <c r="J22" s="9" t="s">
         <v>47</v>
       </c>
       <c r="K22" s="1" t="n">
@@ -1242,13 +1319,13 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="9" t="s">
+      <c r="B24" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="1" t="n">
@@ -1263,7 +1340,7 @@
       <c r="G24" s="1" t="n">
         <v>18271728974</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="10" t="s">
         <v>27</v>
       </c>
       <c r="I24" s="0"/>
@@ -1275,13 +1352,13 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="9" t="s">
+      <c r="B25" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="1" t="n">
@@ -1296,11 +1373,11 @@
       <c r="G25" s="1" t="n">
         <v>15027238361</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="10" t="s">
         <v>27</v>
       </c>
       <c r="I25" s="0"/>
-      <c r="J25" s="10" t="n">
+      <c r="J25" s="11" t="n">
         <v>13402732346</v>
       </c>
       <c r="K25" s="1" t="n">
@@ -1308,13 +1385,13 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="9" t="s">
+      <c r="B26" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="0" t="s">
@@ -1327,10 +1404,10 @@
         <v>90</v>
       </c>
       <c r="G26" s="0"/>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I26" s="11"/>
+      <c r="I26" s="12"/>
       <c r="J26" s="1" t="n">
         <v>13517132733</v>
       </c>
@@ -1339,13 +1416,13 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="1" t="n">
@@ -1360,7 +1437,7 @@
       <c r="G27" s="1" t="n">
         <v>15071884281</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="10" t="s">
         <v>54</v>
       </c>
       <c r="I27" s="0"/>
@@ -1372,13 +1449,13 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="0" t="s">
@@ -1393,7 +1470,7 @@
       <c r="G28" s="1" t="n">
         <v>18727706742</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="10" t="s">
         <v>56</v>
       </c>
       <c r="I28" s="0"/>
@@ -1405,13 +1482,13 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="9" t="s">
+      <c r="B29" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="1" t="n">
@@ -1426,7 +1503,7 @@
       <c r="G29" s="1" t="n">
         <v>15971773949</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="10" t="s">
         <v>27</v>
       </c>
       <c r="I29" s="0"/>
@@ -1438,13 +1515,13 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D30" s="1" t="n">
@@ -1457,11 +1534,11 @@
         <v>90</v>
       </c>
       <c r="G30" s="0"/>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="10" t="s">
         <v>38</v>
       </c>
       <c r="I30" s="0"/>
-      <c r="J30" s="10" t="n">
+      <c r="J30" s="11" t="n">
         <v>15971822577</v>
       </c>
       <c r="K30" s="1" t="n">
@@ -1469,13 +1546,13 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="9" t="s">
+      <c r="B31" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="1" t="n">
@@ -1490,10 +1567,10 @@
       <c r="G31" s="1" t="n">
         <v>15502753766</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I31" s="11" t="s">
+      <c r="I31" s="12" t="s">
         <v>43</v>
       </c>
       <c r="J31" s="1" t="n">
@@ -1504,13 +1581,13 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="9" t="s">
+      <c r="B32" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="1" t="n">
@@ -1522,13 +1599,13 @@
       <c r="F32" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="10" t="n">
+      <c r="G32" s="11" t="n">
         <v>13997787735</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="I32" s="10" t="s">
         <v>28</v>
       </c>
       <c r="J32" s="1" t="n">
@@ -1539,13 +1616,13 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="9" t="s">
+      <c r="B33" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="0" t="s">
@@ -1560,10 +1637,10 @@
       <c r="G33" s="1" t="n">
         <v>13177109399</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="I33" s="10" t="s">
         <v>28</v>
       </c>
       <c r="J33" s="1" t="n">
@@ -1574,13 +1651,13 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="9" t="s">
+      <c r="B34" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="1" t="n">
@@ -1595,10 +1672,10 @@
       <c r="G34" s="1" t="n">
         <v>18372540250</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="H34" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="I34" s="11"/>
+      <c r="I34" s="12"/>
       <c r="J34" s="1" t="n">
         <v>13636287299</v>
       </c>
@@ -1607,13 +1684,13 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="9" t="s">
+      <c r="B35" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D35" s="1" t="n">
@@ -1628,10 +1705,10 @@
       <c r="G35" s="1" t="n">
         <v>18872817398</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="H35" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="I35" s="11"/>
+      <c r="I35" s="12"/>
       <c r="J35" s="1" t="n">
         <v>15971708966</v>
       </c>
@@ -1640,16 +1717,34 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0"/>
-      <c r="B36" s="0"/>
-      <c r="C36" s="0"/>
-      <c r="D36" s="0"/>
-      <c r="E36" s="0"/>
-      <c r="F36" s="0"/>
-      <c r="G36" s="0"/>
-      <c r="H36" s="0"/>
+      <c r="A36" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>15171023213</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="I36" s="0"/>
-      <c r="J36" s="0"/>
+      <c r="J36" s="1" t="n">
+        <v>13631582518</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0"/>
@@ -1737,7 +1832,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1783,13 +1878,13 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D46" s="1" t="n">
         <v>1</v>
@@ -1809,13 +1904,13 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="D47" s="1" t="n">
         <v>1</v>
@@ -1835,13 +1930,13 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D48" s="0"/>
       <c r="E48" s="1" t="n">
@@ -1859,16 +1954,16 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D49" s="0"/>
-      <c r="E49" s="10" t="n">
+      <c r="E49" s="11" t="n">
         <v>20</v>
       </c>
       <c r="F49" s="0"/>
@@ -1883,13 +1978,13 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D50" s="1" t="n">
         <v>90</v>
@@ -1958,7 +2053,7 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56" s="0"/>
       <c r="C56" s="0"/>
@@ -1982,37 +2077,37 @@
       <c r="E57" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F57" s="9" t="s">
+      <c r="F57" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D58" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E58" s="10"/>
+      <c r="D58" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E58" s="11"/>
       <c r="F58" s="1" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D59" s="1" t="n">
         <v>13593614222</v>
@@ -2023,13 +2118,13 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="C60" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D60" s="1" t="n">
         <v>13593606827</v>
@@ -2040,13 +2135,13 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D61" s="1" t="n">
         <v>13044838367</v>
@@ -2056,14 +2151,14 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C62" s="12" t="s">
+      <c r="A62" s="2" t="s">
         <v>88</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D62" s="1" t="n">
         <v>13872713300</v>
@@ -2096,7 +2191,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="7" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="8" width="8.57085020242915"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2122,7 +2217,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="7" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="8" width="8.57085020242915"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/students_names.xlsx
+++ b/students_names.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="93">
   <si>
     <t>高中部</t>
   </si>
@@ -126,6 +126,15 @@
     <t>宋怡泓</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -133,16 +142,6 @@
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
         <charset val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF800000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
       </rPr>
       <t>交</t>
     </r>
@@ -152,7 +151,6 @@
         <color rgb="FF800000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>400</t>
     </r>
@@ -160,9 +158,9 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF800000"/>
-        <rFont val="宋体"/>
+        <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>元</t>
     </r>
@@ -172,7 +170,6 @@
         <color rgb="FF800000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>,</t>
     </r>
@@ -180,9 +177,9 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF800000"/>
-        <rFont val="宋体"/>
+        <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>欠</t>
     </r>
@@ -192,7 +189,6 @@
         <color rgb="FF800000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>600</t>
     </r>
@@ -251,6 +247,9 @@
     <t>石老师</t>
   </si>
   <si>
+    <t>未交费，交了500元</t>
+  </si>
+  <si>
     <t>姜小河</t>
   </si>
   <si>
@@ -347,6 +346,9 @@
     <t>黄心仪</t>
   </si>
   <si>
+    <t>杨思逸</t>
+  </si>
+  <si>
     <t>小学部</t>
   </si>
   <si>
@@ -381,6 +383,9 @@
   </si>
   <si>
     <t>二年级</t>
+  </si>
+  <si>
+    <t>瞿一昕</t>
   </si>
 </sst>
 </file>
@@ -391,7 +396,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -427,6 +432,12 @@
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF800000"/>
+      <name val="Droid Sans Fallback"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -491,7 +502,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -520,15 +531,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -536,7 +543,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -544,8 +551,16 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -565,10 +580,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K62"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K36" activeCellId="0" sqref="K36"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F58" activeCellId="0" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -578,7 +593,7 @@
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="34.4939271255061"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="8.57085020242915"/>
   </cols>
@@ -1112,7 +1127,7 @@
       <c r="H17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="6" t="s">
         <v>34</v>
       </c>
       <c r="J17" s="0"/>
@@ -1245,7 +1260,7 @@
         <v>45</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J21" s="0"/>
       <c r="K21" s="1" t="n">
@@ -1254,7 +1269,7 @@
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>13</v>
@@ -1271,15 +1286,15 @@
       <c r="F22" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>45</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="9" t="s">
-        <v>47</v>
+      <c r="J22" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="K22" s="1" t="n">
         <v>1400</v>
@@ -1287,7 +1302,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>13</v>
@@ -1319,13 +1334,13 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="10" t="s">
+      <c r="A24" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="1" t="n">
@@ -1340,7 +1355,7 @@
       <c r="G24" s="1" t="n">
         <v>18271728974</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="H24" s="9" t="s">
         <v>27</v>
       </c>
       <c r="I24" s="0"/>
@@ -1352,13 +1367,13 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="10" t="s">
+      <c r="A25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="1" t="n">
@@ -1373,11 +1388,11 @@
       <c r="G25" s="1" t="n">
         <v>15027238361</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="9" t="s">
         <v>27</v>
       </c>
       <c r="I25" s="0"/>
-      <c r="J25" s="11" t="n">
+      <c r="J25" s="10" t="n">
         <v>13402732346</v>
       </c>
       <c r="K25" s="1" t="n">
@@ -1385,13 +1400,13 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="10" t="s">
+      <c r="A26" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="0" t="s">
@@ -1404,10 +1419,10 @@
         <v>90</v>
       </c>
       <c r="G26" s="0"/>
-      <c r="H26" s="10" t="s">
+      <c r="H26" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I26" s="12"/>
+      <c r="I26" s="11"/>
       <c r="J26" s="1" t="n">
         <v>13517132733</v>
       </c>
@@ -1416,13 +1431,13 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="B27" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="1" t="n">
@@ -1437,8 +1452,8 @@
       <c r="G27" s="1" t="n">
         <v>15071884281</v>
       </c>
-      <c r="H27" s="10" t="s">
-        <v>54</v>
+      <c r="H27" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="I27" s="0"/>
       <c r="J27" s="1" t="n">
@@ -1449,13 +1464,13 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="10" t="s">
+      <c r="A28" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="0" t="s">
@@ -1470,8 +1485,8 @@
       <c r="G28" s="1" t="n">
         <v>18727706742</v>
       </c>
-      <c r="H28" s="10" t="s">
-        <v>56</v>
+      <c r="H28" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="I28" s="0"/>
       <c r="J28" s="1" t="n">
@@ -1482,13 +1497,13 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="10" t="s">
+      <c r="A29" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="1" t="n">
@@ -1503,7 +1518,7 @@
       <c r="G29" s="1" t="n">
         <v>15971773949</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="H29" s="9" t="s">
         <v>27</v>
       </c>
       <c r="I29" s="0"/>
@@ -1515,13 +1530,13 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="10" t="s">
+      <c r="A30" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D30" s="1" t="n">
@@ -1534,11 +1549,11 @@
         <v>90</v>
       </c>
       <c r="G30" s="0"/>
-      <c r="H30" s="10" t="s">
+      <c r="H30" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I30" s="0"/>
-      <c r="J30" s="11" t="n">
+      <c r="J30" s="10" t="n">
         <v>15971822577</v>
       </c>
       <c r="K30" s="1" t="n">
@@ -1546,13 +1561,13 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="10" t="s">
+      <c r="A31" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="1" t="n">
@@ -1567,12 +1582,10 @@
       <c r="G31" s="1" t="n">
         <v>15502753766</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="H31" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I31" s="12" t="s">
-        <v>43</v>
-      </c>
+      <c r="I31" s="11"/>
       <c r="J31" s="1" t="n">
         <v>13135851555</v>
       </c>
@@ -1581,13 +1594,13 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="10" t="s">
+      <c r="A32" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="1" t="n">
@@ -1599,13 +1612,13 @@
       <c r="F32" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="11" t="n">
+      <c r="G32" s="10" t="n">
         <v>13997787735</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H32" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I32" s="10" t="s">
+      <c r="I32" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J32" s="1" t="n">
@@ -1616,13 +1629,13 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="10" t="s">
+      <c r="A33" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="0" t="s">
@@ -1637,10 +1650,10 @@
       <c r="G33" s="1" t="n">
         <v>13177109399</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="H33" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="10" t="s">
+      <c r="I33" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J33" s="1" t="n">
@@ -1651,13 +1664,13 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="10" t="s">
+      <c r="A34" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="1" t="n">
@@ -1672,10 +1685,12 @@
       <c r="G34" s="1" t="n">
         <v>18372540250</v>
       </c>
-      <c r="H34" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="I34" s="12"/>
+      <c r="H34" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="J34" s="1" t="n">
         <v>13636287299</v>
       </c>
@@ -1684,13 +1699,13 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="10" t="s">
+      <c r="A35" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D35" s="1" t="n">
@@ -1705,10 +1720,10 @@
       <c r="G35" s="1" t="n">
         <v>18872817398</v>
       </c>
-      <c r="H35" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="I35" s="12"/>
+      <c r="H35" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I35" s="11"/>
       <c r="J35" s="1" t="n">
         <v>15971708966</v>
       </c>
@@ -1717,13 +1732,13 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="13" t="s">
+      <c r="A36" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="1" t="n">
@@ -1738,7 +1753,7 @@
       <c r="G36" s="1" t="n">
         <v>15171023213</v>
       </c>
-      <c r="H36" s="13" t="s">
+      <c r="H36" s="9" t="s">
         <v>27</v>
       </c>
       <c r="I36" s="0"/>
@@ -1832,7 +1847,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1878,13 +1893,13 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D46" s="1" t="n">
         <v>1</v>
@@ -1904,13 +1919,13 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D47" s="1" t="n">
         <v>1</v>
@@ -1930,13 +1945,13 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D48" s="0"/>
       <c r="E48" s="1" t="n">
@@ -1954,16 +1969,16 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D49" s="0"/>
-      <c r="E49" s="11" t="n">
+      <c r="E49" s="10" t="n">
         <v>20</v>
       </c>
       <c r="F49" s="0"/>
@@ -1978,13 +1993,13 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D50" s="1" t="n">
         <v>90</v>
@@ -2003,15 +2018,26 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0"/>
-      <c r="B51" s="0"/>
-      <c r="C51" s="0"/>
+      <c r="A51" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>75</v>
+      </c>
       <c r="D51" s="0"/>
       <c r="E51" s="0"/>
       <c r="F51" s="0"/>
       <c r="G51" s="0"/>
       <c r="H51" s="0"/>
-      <c r="I51" s="0"/>
+      <c r="I51" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J51" s="1" t="n">
+        <v>800</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0"/>
@@ -2023,6 +2049,9 @@
       <c r="G52" s="0"/>
       <c r="H52" s="0"/>
       <c r="I52" s="0"/>
+      <c r="J52" s="1" t="n">
+        <v>-4000</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0"/>
@@ -2034,6 +2063,9 @@
       <c r="G53" s="0"/>
       <c r="H53" s="0"/>
       <c r="I53" s="0"/>
+      <c r="J53" s="1" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0"/>
@@ -2053,7 +2085,7 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B56" s="0"/>
       <c r="C56" s="0"/>
@@ -2077,37 +2109,37 @@
       <c r="E57" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F57" s="10" t="s">
+      <c r="F57" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E58" s="11"/>
+        <v>83</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E58" s="10"/>
       <c r="F58" s="1" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="D59" s="1" t="n">
         <v>13593614222</v>
@@ -2118,13 +2150,13 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D60" s="1" t="n">
         <v>13593606827</v>
@@ -2135,13 +2167,13 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="C61" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D61" s="1" t="n">
         <v>13044838367</v>
@@ -2152,18 +2184,35 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="n">
         <v>13872713300</v>
       </c>
       <c r="F62" s="1" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D63" s="1" t="n">
+        <v>13971886605</v>
+      </c>
+      <c r="F63" s="1" t="n">
         <v>300</v>
       </c>
     </row>
@@ -2191,7 +2240,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="8" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="7" width="8.57085020242915"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2217,7 +2266,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="8" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="7" width="8.57085020242915"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/students_names.xlsx
+++ b/students_names.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="93">
   <si>
     <t>高中部</t>
   </si>
@@ -126,72 +126,6 @@
     <t>宋怡泓</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF800000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF800000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>交</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF800000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>400</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF800000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF800000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF800000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>欠</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF800000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>600</t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -200,7 +134,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>元</t>
+      <t>(交400元,欠600元</t>
     </r>
     <r>
       <rPr>
@@ -396,7 +330,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -436,12 +370,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF800000"/>
-      <name val="Droid Sans Fallback"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF800000"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -452,12 +380,6 @@
       <name val="宋体"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Droid Sans Fallback"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -502,7 +424,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -535,7 +457,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -543,24 +465,12 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -582,8 +492,8 @@
   </sheetPr>
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F58" activeCellId="0" sqref="F58"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H34" activeCellId="0" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -593,7 +503,7 @@
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="34.7085020242915"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="8.57085020242915"/>
   </cols>
@@ -1688,9 +1598,7 @@
       <c r="H34" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="I34" s="11" t="s">
-        <v>43</v>
-      </c>
+      <c r="I34" s="11"/>
       <c r="J34" s="1" t="n">
         <v>13636287299</v>
       </c>
@@ -2018,13 +1926,13 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="9" t="s">
         <v>75</v>
       </c>
       <c r="D51" s="0"/>
@@ -2032,7 +1940,7 @@
       <c r="F51" s="0"/>
       <c r="G51" s="0"/>
       <c r="H51" s="0"/>
-      <c r="I51" s="13" t="s">
+      <c r="I51" s="11" t="s">
         <v>43</v>
       </c>
       <c r="J51" s="1" t="n">
@@ -2200,13 +2108,13 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C63" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D63" s="1" t="n">

--- a/students_names.xlsx
+++ b/students_names.xlsx
@@ -130,11 +130,81 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF800000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
         <rFont val="宋体"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>(交400元,欠600元</t>
+      <t>交</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>欠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>600</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元</t>
     </r>
     <r>
       <rPr>
@@ -172,115 +242,115 @@
     <t>王成宝</t>
   </si>
   <si>
+    <t>牟月</t>
+  </si>
+  <si>
+    <t>石老师</t>
+  </si>
+  <si>
+    <t>未交费，交了500元</t>
+  </si>
+  <si>
+    <t>姜小河</t>
+  </si>
+  <si>
+    <t>13135842005</t>
+  </si>
+  <si>
+    <t>李贤</t>
+  </si>
+  <si>
+    <t>杨桄</t>
+  </si>
+  <si>
+    <t>丁新</t>
+  </si>
+  <si>
+    <t>文桃</t>
+  </si>
+  <si>
+    <t>袁恩莉</t>
+  </si>
+  <si>
+    <t>一中</t>
+  </si>
+  <si>
+    <t>黄老师</t>
+  </si>
+  <si>
+    <t>谭莉</t>
+  </si>
+  <si>
+    <t>肖老师</t>
+  </si>
+  <si>
+    <t>刘怡君</t>
+  </si>
+  <si>
+    <t>刘锐</t>
+  </si>
+  <si>
+    <t>向淑</t>
+  </si>
+  <si>
+    <t>周潇</t>
+  </si>
+  <si>
+    <t>吴文娟</t>
+  </si>
+  <si>
+    <t>杨帆</t>
+  </si>
+  <si>
+    <t>方老师</t>
+  </si>
+  <si>
+    <t>张王秋</t>
+  </si>
+  <si>
+    <t>吕老师</t>
+  </si>
+  <si>
+    <t>覃立政</t>
+  </si>
+  <si>
+    <t>初中部</t>
+  </si>
+  <si>
+    <t>胡美玲</t>
+  </si>
+  <si>
+    <t>清外</t>
+  </si>
+  <si>
+    <t>八年级</t>
+  </si>
+  <si>
+    <t>倪萌</t>
+  </si>
+  <si>
+    <t>黄晓宇</t>
+  </si>
+  <si>
+    <t>思源中学</t>
+  </si>
+  <si>
+    <t>九年级</t>
+  </si>
+  <si>
+    <t>朱柏聪</t>
+  </si>
+  <si>
+    <t>九年就</t>
+  </si>
+  <si>
+    <t>黄心仪</t>
+  </si>
+  <si>
+    <t>杨思逸</t>
+  </si>
+  <si>
     <t>未交费</t>
-  </si>
-  <si>
-    <t>牟月</t>
-  </si>
-  <si>
-    <t>石老师</t>
-  </si>
-  <si>
-    <t>未交费，交了500元</t>
-  </si>
-  <si>
-    <t>姜小河</t>
-  </si>
-  <si>
-    <t>13135842005</t>
-  </si>
-  <si>
-    <t>李贤</t>
-  </si>
-  <si>
-    <t>杨桄</t>
-  </si>
-  <si>
-    <t>丁新</t>
-  </si>
-  <si>
-    <t>文桃</t>
-  </si>
-  <si>
-    <t>袁恩莉</t>
-  </si>
-  <si>
-    <t>一中</t>
-  </si>
-  <si>
-    <t>黄老师</t>
-  </si>
-  <si>
-    <t>谭莉</t>
-  </si>
-  <si>
-    <t>肖老师</t>
-  </si>
-  <si>
-    <t>刘怡君</t>
-  </si>
-  <si>
-    <t>刘锐</t>
-  </si>
-  <si>
-    <t>向淑</t>
-  </si>
-  <si>
-    <t>周潇</t>
-  </si>
-  <si>
-    <t>吴文娟</t>
-  </si>
-  <si>
-    <t>杨帆</t>
-  </si>
-  <si>
-    <t>方老师</t>
-  </si>
-  <si>
-    <t>张王秋</t>
-  </si>
-  <si>
-    <t>吕老师</t>
-  </si>
-  <si>
-    <t>覃立政</t>
-  </si>
-  <si>
-    <t>初中部</t>
-  </si>
-  <si>
-    <t>胡美玲</t>
-  </si>
-  <si>
-    <t>清外</t>
-  </si>
-  <si>
-    <t>八年级</t>
-  </si>
-  <si>
-    <t>倪萌</t>
-  </si>
-  <si>
-    <t>黄晓宇</t>
-  </si>
-  <si>
-    <t>思源中学</t>
-  </si>
-  <si>
-    <t>九年级</t>
-  </si>
-  <si>
-    <t>朱柏聪</t>
-  </si>
-  <si>
-    <t>九年就</t>
-  </si>
-  <si>
-    <t>黄心仪</t>
-  </si>
-  <si>
-    <t>杨思逸</t>
   </si>
   <si>
     <t>小学部</t>
@@ -424,7 +494,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -450,6 +520,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -493,7 +567,7 @@
   <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H34" activeCellId="0" sqref="H34"/>
+      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -503,7 +577,7 @@
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="34.919028340081"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="8.57085020242915"/>
   </cols>
@@ -1037,7 +1111,7 @@
       <c r="H17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="7" t="s">
         <v>34</v>
       </c>
       <c r="J17" s="0"/>
@@ -1121,8 +1195,8 @@
       <c r="C20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="4" t="n">
-        <v>20</v>
+      <c r="D20" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>15</v>
@@ -1136,9 +1210,7 @@
       <c r="H20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="I20" s="6"/>
       <c r="J20" s="0"/>
       <c r="K20" s="1" t="n">
         <v>0</v>
@@ -1146,7 +1218,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>13</v>
@@ -1167,10 +1239,10 @@
         <v>15171095154</v>
       </c>
       <c r="H21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="J21" s="0"/>
       <c r="K21" s="1" t="n">
@@ -1179,7 +1251,7 @@
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>13</v>
@@ -1196,15 +1268,15 @@
       <c r="F22" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="8" t="s">
-        <v>48</v>
+      <c r="J22" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="K22" s="1" t="n">
         <v>1400</v>
@@ -1212,7 +1284,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>13</v>
@@ -1244,13 +1316,13 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="9" t="s">
+      <c r="A24" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="1" t="n">
@@ -1265,7 +1337,7 @@
       <c r="G24" s="1" t="n">
         <v>18271728974</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="10" t="s">
         <v>27</v>
       </c>
       <c r="I24" s="0"/>
@@ -1277,13 +1349,13 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="9" t="s">
+      <c r="A25" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="1" t="n">
@@ -1298,11 +1370,11 @@
       <c r="G25" s="1" t="n">
         <v>15027238361</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="10" t="s">
         <v>27</v>
       </c>
       <c r="I25" s="0"/>
-      <c r="J25" s="10" t="n">
+      <c r="J25" s="11" t="n">
         <v>13402732346</v>
       </c>
       <c r="K25" s="1" t="n">
@@ -1310,13 +1382,13 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="9" t="s">
+      <c r="A26" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="0" t="s">
@@ -1329,10 +1401,10 @@
         <v>90</v>
       </c>
       <c r="G26" s="0"/>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I26" s="11"/>
+      <c r="I26" s="12"/>
       <c r="J26" s="1" t="n">
         <v>13517132733</v>
       </c>
@@ -1341,13 +1413,13 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="1" t="n">
@@ -1362,8 +1434,8 @@
       <c r="G27" s="1" t="n">
         <v>15071884281</v>
       </c>
-      <c r="H27" s="9" t="s">
-        <v>55</v>
+      <c r="H27" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="I27" s="0"/>
       <c r="J27" s="1" t="n">
@@ -1374,13 +1446,13 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="9" t="s">
+      <c r="A28" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="0" t="s">
@@ -1395,8 +1467,8 @@
       <c r="G28" s="1" t="n">
         <v>18727706742</v>
       </c>
-      <c r="H28" s="9" t="s">
-        <v>57</v>
+      <c r="H28" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="I28" s="0"/>
       <c r="J28" s="1" t="n">
@@ -1407,13 +1479,13 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="9" t="s">
+      <c r="A29" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="1" t="n">
@@ -1428,7 +1500,7 @@
       <c r="G29" s="1" t="n">
         <v>15971773949</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="10" t="s">
         <v>27</v>
       </c>
       <c r="I29" s="0"/>
@@ -1440,13 +1512,13 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D30" s="1" t="n">
@@ -1459,11 +1531,11 @@
         <v>90</v>
       </c>
       <c r="G30" s="0"/>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="10" t="s">
         <v>38</v>
       </c>
       <c r="I30" s="0"/>
-      <c r="J30" s="10" t="n">
+      <c r="J30" s="11" t="n">
         <v>15971822577</v>
       </c>
       <c r="K30" s="1" t="n">
@@ -1471,13 +1543,13 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="9" t="s">
+      <c r="A31" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="1" t="n">
@@ -1492,10 +1564,10 @@
       <c r="G31" s="1" t="n">
         <v>15502753766</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I31" s="11"/>
+      <c r="I31" s="12"/>
       <c r="J31" s="1" t="n">
         <v>13135851555</v>
       </c>
@@ -1504,13 +1576,13 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="9" t="s">
+      <c r="A32" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="1" t="n">
@@ -1522,13 +1594,13 @@
       <c r="F32" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="10" t="n">
+      <c r="G32" s="11" t="n">
         <v>13997787735</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="I32" s="10" t="s">
         <v>28</v>
       </c>
       <c r="J32" s="1" t="n">
@@ -1539,13 +1611,13 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="9" t="s">
+      <c r="A33" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="0" t="s">
@@ -1560,10 +1632,10 @@
       <c r="G33" s="1" t="n">
         <v>13177109399</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="I33" s="10" t="s">
         <v>28</v>
       </c>
       <c r="J33" s="1" t="n">
@@ -1574,13 +1646,13 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="9" t="s">
+      <c r="A34" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="1" t="n">
@@ -1595,10 +1667,10 @@
       <c r="G34" s="1" t="n">
         <v>18372540250</v>
       </c>
-      <c r="H34" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="I34" s="11"/>
+      <c r="H34" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I34" s="12"/>
       <c r="J34" s="1" t="n">
         <v>13636287299</v>
       </c>
@@ -1607,13 +1679,13 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="9" t="s">
+      <c r="A35" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D35" s="1" t="n">
@@ -1628,10 +1700,10 @@
       <c r="G35" s="1" t="n">
         <v>18872817398</v>
       </c>
-      <c r="H35" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I35" s="11"/>
+      <c r="H35" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I35" s="12"/>
       <c r="J35" s="1" t="n">
         <v>15971708966</v>
       </c>
@@ -1640,13 +1712,13 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="9" t="s">
+      <c r="A36" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="1" t="n">
@@ -1661,7 +1733,7 @@
       <c r="G36" s="1" t="n">
         <v>15171023213</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="H36" s="10" t="s">
         <v>27</v>
       </c>
       <c r="I36" s="0"/>
@@ -1755,7 +1827,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1801,13 +1873,13 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="D46" s="1" t="n">
         <v>1</v>
@@ -1827,13 +1899,13 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="D47" s="1" t="n">
         <v>1</v>
@@ -1853,13 +1925,13 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="D48" s="0"/>
       <c r="E48" s="1" t="n">
@@ -1877,16 +1949,16 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="D49" s="0"/>
-      <c r="E49" s="10" t="n">
+      <c r="E49" s="11" t="n">
         <v>20</v>
       </c>
       <c r="F49" s="0"/>
@@ -1901,13 +1973,13 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="D50" s="1" t="n">
         <v>90</v>
@@ -1926,22 +1998,22 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B51" s="9" t="s">
+      <c r="A51" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="D51" s="0"/>
       <c r="E51" s="0"/>
       <c r="F51" s="0"/>
       <c r="G51" s="0"/>
       <c r="H51" s="0"/>
-      <c r="I51" s="11" t="s">
-        <v>43</v>
+      <c r="I51" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="J51" s="1" t="n">
         <v>800</v>
@@ -2017,7 +2089,7 @@
       <c r="E57" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F57" s="9" t="s">
+      <c r="F57" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2031,10 +2103,10 @@
       <c r="C58" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E58" s="10"/>
+      <c r="E58" s="11"/>
       <c r="F58" s="1" t="n">
         <v>300</v>
       </c>
@@ -2148,7 +2220,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="7" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="8" width="8.57085020242915"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2174,7 +2246,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="7" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="8" width="8.57085020242915"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/students_names.xlsx
+++ b/students_names.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="91">
   <si>
     <t>高中部</t>
   </si>
@@ -114,9 +114,6 @@
     <t>谭鑫</t>
   </si>
   <si>
-    <t>黄永秋兰</t>
-  </si>
-  <si>
     <t>杨立</t>
   </si>
   <si>
@@ -126,98 +123,6 @@
     <t>宋怡泓</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF800000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF800000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>交</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF800000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>400</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF800000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF800000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF800000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>欠</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF800000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>600</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF800000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF800000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>刘晓荣</t>
   </si>
   <si>
@@ -248,9 +153,6 @@
     <t>石老师</t>
   </si>
   <si>
-    <t>未交费，交了500元</t>
-  </si>
-  <si>
     <t>姜小河</t>
   </si>
   <si>
@@ -284,7 +186,7 @@
     <t>肖老师</t>
   </si>
   <si>
-    <t>刘怡君</t>
+    <t>刘钇君</t>
   </si>
   <si>
     <t>刘锐</t>
@@ -314,6 +216,9 @@
     <t>覃立政</t>
   </si>
   <si>
+    <t>卢星宇</t>
+  </si>
+  <si>
     <t>初中部</t>
   </si>
   <si>
@@ -344,7 +249,7 @@
     <t>九年就</t>
   </si>
   <si>
-    <t>黄心仪</t>
+    <t>黄欣怡</t>
   </si>
   <si>
     <t>杨思逸</t>
@@ -383,7 +288,7 @@
     <t>三年级</t>
   </si>
   <si>
-    <t>黄柄清</t>
+    <t>黄柄钦</t>
   </si>
   <si>
     <t>二年级</t>
@@ -438,11 +343,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <u val="single"/>
       <sz val="11"/>
-      <color rgb="FF800000"/>
-      <name val="宋体"/>
+      <color rgb="FF000000"/>
+      <name val="Droid Sans Fallback"/>
       <family val="2"/>
-      <charset val="134"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -511,15 +417,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -535,16 +441,16 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -564,10 +470,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -577,7 +483,7 @@
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="35.5627530364373"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="8.57085020242915"/>
   </cols>
@@ -633,7 +539,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -648,10 +554,10 @@
       <c r="E3" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -666,7 +572,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -681,7 +587,7 @@
       <c r="E4" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="1" t="n">
@@ -699,7 +605,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -714,7 +620,7 @@
       <c r="E5" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="1" t="n">
@@ -732,7 +638,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -747,7 +653,7 @@
       <c r="E6" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="1" t="n">
@@ -765,7 +671,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -777,10 +683,10 @@
       <c r="D7" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="1" t="n">
@@ -798,7 +704,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -807,7 +713,7 @@
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="1" t="n">
@@ -831,7 +737,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -846,7 +752,7 @@
       <c r="E9" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="1" t="n">
@@ -864,7 +770,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -879,7 +785,7 @@
       <c r="E10" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="1" t="n">
@@ -897,7 +803,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -906,7 +812,7 @@
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="1" t="n">
@@ -930,7 +836,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -945,7 +851,7 @@
       <c r="E12" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="1" t="n">
@@ -963,7 +869,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -972,7 +878,7 @@
       <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="1" t="n">
@@ -987,14 +893,14 @@
       <c r="H13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="4"/>
+      <c r="I13" s="5"/>
       <c r="J13" s="0"/>
       <c r="K13" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1003,29 +909,29 @@
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="4" t="n">
-        <v>90</v>
+      <c r="D14" s="1" t="n">
+        <v>81</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="F14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>13517189557</v>
+        <v>13477215288</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="6"/>
+      <c r="I14" s="0"/>
       <c r="J14" s="0"/>
       <c r="K14" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1034,29 +940,29 @@
       <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="1" t="n">
-        <v>81</v>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="F15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>13477215288</v>
+        <v>18071923712</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="0"/>
+      <c r="I15" s="4"/>
       <c r="J15" s="0"/>
       <c r="K15" s="1" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1065,159 +971,157 @@
       <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>15</v>
+      <c r="D16" s="1" t="n">
+        <v>80</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="F16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>18071923712</v>
+        <v>13100760515</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="6"/>
+      <c r="I16" s="4"/>
       <c r="J16" s="0"/>
       <c r="K16" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="E17" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="D17" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="F17" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="1" t="n">
-        <v>13100760515</v>
+      <c r="E17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>18727677896</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="J17" s="0"/>
       <c r="K17" s="1" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="D18" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>15172852482</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="G18" s="4" t="n">
-        <v>18727677896</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J18" s="0"/>
       <c r="K18" s="1" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>18371814221</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="4" t="n">
-        <v>15172852482</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="I19" s="4"/>
       <c r="J19" s="0"/>
       <c r="K19" s="1" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>15171095154</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="G20" s="4" t="n">
-        <v>18371814221</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="6"/>
+      <c r="I20" s="4"/>
       <c r="J20" s="0"/>
       <c r="K20" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1227,32 +1131,32 @@
         <v>14</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="1" t="n">
-        <v>15171095154</v>
+        <v>60</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="H21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="K21" s="1" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J21" s="0"/>
-      <c r="K21" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
@@ -1260,56 +1164,56 @@
         <v>14</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="E22" s="1" t="n">
-        <v>30</v>
+        <v>80</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F22" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>15</v>
+      <c r="G22" s="1" t="n">
+        <v>15171954812</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="9" t="s">
-        <v>47</v>
+        <v>27</v>
+      </c>
+      <c r="I22" s="0"/>
+      <c r="J22" s="1" t="n">
+        <v>15818501395</v>
       </c>
       <c r="K22" s="1" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="A23" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="1" t="n">
-        <v>50</v>
+        <v>90</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>15171954812</v>
-      </c>
-      <c r="H23" s="2" t="s">
+        <v>18271728974</v>
+      </c>
+      <c r="H23" s="11" t="s">
         <v>27</v>
       </c>
       <c r="I23" s="0"/>
       <c r="J23" s="1" t="n">
-        <v>15818501395</v>
+        <v>13044850086</v>
       </c>
       <c r="K23" s="1" t="n">
         <v>1000</v>
@@ -1317,129 +1221,129 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E24" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="F24" s="0" t="s">
-        <v>15</v>
+      <c r="F24" s="1" t="n">
+        <v>80</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>18271728974</v>
-      </c>
-      <c r="H24" s="10" t="s">
+        <v>15027238361</v>
+      </c>
+      <c r="H24" s="11" t="s">
         <v>27</v>
       </c>
       <c r="I24" s="0"/>
-      <c r="J24" s="1" t="n">
-        <v>13044850086</v>
+      <c r="J24" s="12" t="n">
+        <v>13402732346</v>
       </c>
       <c r="K24" s="1" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="E25" s="1" t="n">
-        <v>60</v>
-      </c>
       <c r="F25" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="G25" s="1" t="n">
-        <v>15027238361</v>
-      </c>
-      <c r="H25" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="0"/>
+      <c r="H25" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I25" s="0"/>
-      <c r="J25" s="11" t="n">
-        <v>13402732346</v>
+      <c r="I25" s="10"/>
+      <c r="J25" s="1" t="n">
+        <v>13517132733</v>
       </c>
       <c r="K25" s="1" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>15071884281</v>
+      </c>
+      <c r="H26" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="F26" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="G26" s="0"/>
-      <c r="H26" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I26" s="12"/>
+      <c r="I26" s="0"/>
       <c r="J26" s="1" t="n">
-        <v>13517132733</v>
+        <v>13454073122</v>
       </c>
       <c r="K26" s="1" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>18727706742</v>
+      </c>
+      <c r="H27" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="E27" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="1" t="n">
-        <v>15071884281</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>54</v>
       </c>
       <c r="I27" s="0"/>
       <c r="J27" s="1" t="n">
-        <v>13454073122</v>
+        <v>15172890880</v>
       </c>
       <c r="K27" s="1" t="n">
         <v>1000</v>
@@ -1447,32 +1351,32 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>15</v>
+        <v>54</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>40</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="F28" s="1" t="n">
-        <v>50</v>
+        <v>40</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>18727706742</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>56</v>
+        <v>15971773949</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="I28" s="0"/>
       <c r="J28" s="1" t="n">
-        <v>15172890880</v>
+        <v>15972856457</v>
       </c>
       <c r="K28" s="1" t="n">
         <v>1000</v>
@@ -1480,32 +1384,30 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>14</v>
+        <v>55</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="E29" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="1" t="n">
-        <v>15971773949</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>27</v>
+        <v>90</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="G29" s="0"/>
+      <c r="H29" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="I29" s="0"/>
-      <c r="J29" s="1" t="n">
-        <v>15972856457</v>
+      <c r="J29" s="12" t="n">
+        <v>15971822577</v>
       </c>
       <c r="K29" s="1" t="n">
         <v>1000</v>
@@ -1513,98 +1415,102 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>37</v>
+        <v>56</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="G30" s="0"/>
-      <c r="H30" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I30" s="0"/>
-      <c r="J30" s="11" t="n">
-        <v>15971822577</v>
+        <v>100</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>15502753766</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" s="10"/>
+      <c r="J30" s="1" t="n">
+        <v>13135851555</v>
       </c>
       <c r="K30" s="1" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="1" t="n">
-        <v>15502753766</v>
-      </c>
-      <c r="H31" s="10" t="s">
+      <c r="G31" s="12" t="n">
+        <v>13997787735</v>
+      </c>
+      <c r="H31" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I31" s="12"/>
+      <c r="I31" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="J31" s="1" t="n">
-        <v>13135851555</v>
+        <v>13477950867</v>
       </c>
       <c r="K31" s="1" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="F32" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="E32" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="11" t="n">
-        <v>13997787735</v>
-      </c>
-      <c r="H32" s="10" t="s">
+      <c r="G32" s="1" t="n">
+        <v>13177109399</v>
+      </c>
+      <c r="H32" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I32" s="10" t="s">
+      <c r="I32" s="11" t="s">
         <v>28</v>
       </c>
       <c r="J32" s="1" t="n">
-        <v>13477950867</v>
+        <v>15172976888</v>
       </c>
       <c r="K32" s="1" t="n">
         <v>1000</v>
@@ -1612,67 +1518,65 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>15</v>
+        <v>59</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>90</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="F33" s="1" t="n">
         <v>60</v>
       </c>
+      <c r="F33" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="G33" s="1" t="n">
-        <v>13177109399</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>18372540250</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I33" s="10"/>
       <c r="J33" s="1" t="n">
-        <v>15172976888</v>
+        <v>13636287299</v>
       </c>
       <c r="K33" s="1" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>18872817398</v>
+      </c>
+      <c r="H34" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="E34" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="1" t="n">
-        <v>18372540250</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="I34" s="12"/>
+      <c r="I34" s="10"/>
       <c r="J34" s="1" t="n">
-        <v>13636287299</v>
+        <v>15971708966</v>
       </c>
       <c r="K34" s="1" t="n">
         <v>0</v>
@@ -1680,66 +1584,59 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="F35" s="1" t="n">
-        <v>80</v>
+        <v>60</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>18872817398</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="I35" s="12"/>
+        <v>15171023213</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I35" s="0"/>
       <c r="J35" s="1" t="n">
-        <v>15971708966</v>
-      </c>
-      <c r="K35" s="1" t="n">
-        <v>0</v>
-      </c>
+        <v>13631582518</v>
+      </c>
+      <c r="K35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="E36" s="1" t="n">
-        <v>60</v>
+        <v>90</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G36" s="1" t="n">
-        <v>15171023213</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>27</v>
-      </c>
+      <c r="G36" s="0"/>
+      <c r="H36" s="0"/>
       <c r="I36" s="0"/>
-      <c r="J36" s="1" t="n">
-        <v>13631582518</v>
-      </c>
+      <c r="J36" s="0"/>
+      <c r="K36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0"/>
@@ -1766,433 +1663,373 @@
       <c r="J38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0"/>
-      <c r="B39" s="0"/>
-      <c r="C39" s="0"/>
-      <c r="D39" s="0"/>
-      <c r="E39" s="0"/>
-      <c r="F39" s="0"/>
-      <c r="G39" s="0"/>
-      <c r="H39" s="0"/>
-      <c r="I39" s="0"/>
+      <c r="A39" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
       <c r="J39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0"/>
-      <c r="B40" s="0"/>
-      <c r="C40" s="0"/>
-      <c r="D40" s="0"/>
-      <c r="E40" s="0"/>
-      <c r="F40" s="0"/>
-      <c r="G40" s="0"/>
-      <c r="H40" s="0"/>
-      <c r="I40" s="0"/>
-      <c r="J40" s="0"/>
+      <c r="A40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0"/>
-      <c r="B41" s="0"/>
-      <c r="C41" s="0"/>
-      <c r="D41" s="0"/>
-      <c r="E41" s="0"/>
+      <c r="A41" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="F41" s="0"/>
-      <c r="G41" s="0"/>
-      <c r="H41" s="0"/>
-      <c r="I41" s="0"/>
-      <c r="J41" s="0"/>
+      <c r="G41" s="1" t="n">
+        <v>13403088611</v>
+      </c>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="1" t="n">
+        <v>800</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0"/>
-      <c r="B42" s="0"/>
-      <c r="C42" s="0"/>
-      <c r="D42" s="0"/>
-      <c r="E42" s="0"/>
+      <c r="A42" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="F42" s="0"/>
-      <c r="G42" s="0"/>
-      <c r="H42" s="0"/>
-      <c r="I42" s="0"/>
-      <c r="J42" s="0"/>
+      <c r="G42" s="1" t="n">
+        <v>18872131370</v>
+      </c>
+      <c r="H42" s="5"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="1" t="n">
+        <v>800</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0"/>
-      <c r="B43" s="0"/>
-      <c r="C43" s="0"/>
+      <c r="A43" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="D43" s="0"/>
-      <c r="E43" s="0"/>
+      <c r="E43" s="1" t="n">
+        <v>40</v>
+      </c>
       <c r="F43" s="0"/>
-      <c r="G43" s="0"/>
+      <c r="G43" s="1" t="n">
+        <v>15172842580</v>
+      </c>
       <c r="H43" s="0"/>
       <c r="I43" s="0"/>
-      <c r="J43" s="0"/>
+      <c r="J43" s="1" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="0"/>
+      <c r="E44" s="12" t="n">
+        <v>20</v>
+      </c>
+      <c r="F44" s="0"/>
+      <c r="G44" s="1" t="n">
+        <v>18372525023</v>
+      </c>
+      <c r="H44" s="0"/>
+      <c r="I44" s="0"/>
+      <c r="J44" s="1" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="0"/>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="C45" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>11</v>
+        <v>68</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="F45" s="0"/>
+      <c r="G45" s="1" t="n">
+        <v>13197217793</v>
+      </c>
+      <c r="H45" s="0"/>
+      <c r="I45" s="0"/>
+      <c r="J45" s="1" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D46" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="A46" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" s="0"/>
+      <c r="E46" s="0"/>
       <c r="F46" s="0"/>
-      <c r="G46" s="1" t="n">
-        <v>13403088611</v>
-      </c>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
+      <c r="G46" s="0"/>
+      <c r="H46" s="0"/>
+      <c r="I46" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="J46" s="1" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D47" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="A47" s="0"/>
+      <c r="B47" s="0"/>
+      <c r="C47" s="0"/>
+      <c r="D47" s="0"/>
+      <c r="E47" s="0"/>
       <c r="F47" s="0"/>
-      <c r="G47" s="1" t="n">
-        <v>18872131370</v>
-      </c>
-      <c r="H47" s="4"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="1" t="n">
-        <v>800</v>
-      </c>
+      <c r="G47" s="0"/>
+      <c r="H47" s="0"/>
+      <c r="I47" s="0"/>
+      <c r="J47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="A48" s="0"/>
+      <c r="B48" s="0"/>
+      <c r="C48" s="0"/>
       <c r="D48" s="0"/>
-      <c r="E48" s="1" t="n">
-        <v>40</v>
-      </c>
+      <c r="E48" s="0"/>
       <c r="F48" s="0"/>
-      <c r="G48" s="1" t="n">
-        <v>15172842580</v>
-      </c>
+      <c r="G48" s="0"/>
       <c r="H48" s="0"/>
       <c r="I48" s="0"/>
-      <c r="J48" s="1" t="n">
-        <v>500</v>
-      </c>
+      <c r="J48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>76</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B49" s="0"/>
+      <c r="C49" s="0"/>
       <c r="D49" s="0"/>
-      <c r="E49" s="11" t="n">
-        <v>20</v>
-      </c>
+      <c r="E49" s="0"/>
       <c r="F49" s="0"/>
-      <c r="G49" s="1" t="n">
-        <v>18372525023</v>
-      </c>
+      <c r="G49" s="0"/>
       <c r="H49" s="0"/>
       <c r="I49" s="0"/>
-      <c r="J49" s="1" t="n">
-        <v>500</v>
-      </c>
+      <c r="J49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D50" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="E50" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="F50" s="0"/>
-      <c r="G50" s="1" t="n">
-        <v>13197217793</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="0"/>
       <c r="H50" s="0"/>
       <c r="I50" s="0"/>
-      <c r="J50" s="1" t="n">
-        <v>800</v>
-      </c>
+      <c r="J50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D51" s="0"/>
-      <c r="E51" s="0"/>
-      <c r="F51" s="0"/>
+      <c r="A51" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E51" s="12"/>
+      <c r="F51" s="1" t="n">
+        <v>300</v>
+      </c>
       <c r="G51" s="0"/>
       <c r="H51" s="0"/>
-      <c r="I51" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="J51" s="1" t="n">
-        <v>800</v>
-      </c>
+      <c r="I51" s="0"/>
+      <c r="J51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0"/>
-      <c r="B52" s="0"/>
-      <c r="C52" s="0"/>
-      <c r="D52" s="0"/>
-      <c r="E52" s="0"/>
-      <c r="F52" s="0"/>
+      <c r="A52" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D52" s="1" t="n">
+        <v>13593614222</v>
+      </c>
+      <c r="F52" s="1" t="n">
+        <v>300</v>
+      </c>
       <c r="G52" s="0"/>
       <c r="H52" s="0"/>
       <c r="I52" s="0"/>
-      <c r="J52" s="1" t="n">
-        <v>-4000</v>
-      </c>
+      <c r="J52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0"/>
-      <c r="B53" s="0"/>
-      <c r="C53" s="0"/>
-      <c r="D53" s="0"/>
-      <c r="E53" s="0"/>
-      <c r="F53" s="0"/>
+      <c r="A53" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D53" s="1" t="n">
+        <v>13593606827</v>
+      </c>
+      <c r="F53" s="1" t="n">
+        <v>300</v>
+      </c>
       <c r="G53" s="0"/>
       <c r="H53" s="0"/>
       <c r="I53" s="0"/>
-      <c r="J53" s="1" t="n">
-        <v>200</v>
-      </c>
+      <c r="J53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0"/>
-      <c r="B54" s="0"/>
-      <c r="C54" s="0"/>
-      <c r="D54" s="0"/>
-      <c r="E54" s="0"/>
-      <c r="F54" s="0"/>
+      <c r="A54" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D54" s="1" t="n">
+        <v>13044838367</v>
+      </c>
+      <c r="F54" s="1" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0"/>
-      <c r="B55" s="0"/>
-      <c r="C55" s="0"/>
-      <c r="D55" s="0"/>
-      <c r="E55" s="0"/>
-      <c r="F55" s="0"/>
+      <c r="A55" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55" s="1" t="n">
+        <v>13872713300</v>
+      </c>
+      <c r="F55" s="1" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B56" s="0"/>
-      <c r="C56" s="0"/>
-      <c r="D56" s="0"/>
-      <c r="E56" s="0"/>
-      <c r="F56" s="0"/>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D58" s="9" t="s">
+      <c r="A56" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E58" s="11"/>
-      <c r="F58" s="1" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D59" s="1" t="n">
-        <v>13593614222</v>
-      </c>
-      <c r="F59" s="1" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D60" s="1" t="n">
-        <v>13593606827</v>
-      </c>
-      <c r="F60" s="1" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D61" s="1" t="n">
-        <v>13044838367</v>
-      </c>
-      <c r="F61" s="1" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D62" s="1" t="n">
-        <v>13872713300</v>
-      </c>
-      <c r="F62" s="1" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D63" s="1" t="n">
+      <c r="D56" s="1" t="n">
         <v>13971886605</v>
       </c>
-      <c r="F63" s="1" t="n">
+      <c r="F56" s="1" t="n">
         <v>300</v>
       </c>
     </row>

--- a/students_names.xlsx
+++ b/students_names.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="98">
   <si>
     <t>高中部</t>
   </si>
@@ -219,6 +219,12 @@
     <t>卢星宇</t>
   </si>
   <si>
+    <t>牟垚</t>
+  </si>
+  <si>
+    <t>陈昱树</t>
+  </si>
+  <si>
     <t>初中部</t>
   </si>
   <si>
@@ -258,6 +264,15 @@
     <t>未交费</t>
   </si>
   <si>
+    <t>吴涛</t>
+  </si>
+  <si>
+    <t>民族中学</t>
+  </si>
+  <si>
+    <t>陈燕林</t>
+  </si>
+  <si>
     <t>小学部</t>
   </si>
   <si>
@@ -295,6 +310,12 @@
   </si>
   <si>
     <t>瞿一昕</t>
+  </si>
+  <si>
+    <t>周星宇</t>
+  </si>
+  <si>
+    <t>四年级</t>
   </si>
 </sst>
 </file>
@@ -305,7 +326,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -357,6 +378,18 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF800000"/>
+      <name val="Droid Sans Fallback"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Droid Sans Fallback"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -400,7 +433,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -453,6 +486,14 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -470,10 +511,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -483,7 +524,7 @@
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="36.2064777327935"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="8.57085020242915"/>
   </cols>
@@ -1008,8 +1049,8 @@
       <c r="E17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="5" t="n">
-        <v>50</v>
+      <c r="F17" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>18727677896</v>
@@ -1639,222 +1680,160 @@
       <c r="K36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0"/>
-      <c r="B37" s="0"/>
-      <c r="C37" s="0"/>
-      <c r="D37" s="0"/>
-      <c r="E37" s="0"/>
-      <c r="F37" s="0"/>
-      <c r="G37" s="0"/>
-      <c r="H37" s="0"/>
+      <c r="A37" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>13098477484</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="I37" s="0"/>
-      <c r="J37" s="0"/>
+      <c r="J37" s="1" t="n">
+        <v>15888606744</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0"/>
-      <c r="B38" s="0"/>
-      <c r="C38" s="0"/>
-      <c r="D38" s="0"/>
-      <c r="E38" s="0"/>
-      <c r="F38" s="0"/>
-      <c r="G38" s="0"/>
-      <c r="H38" s="0"/>
+      <c r="A38" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>13403022413</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="I38" s="0"/>
-      <c r="J38" s="0"/>
+      <c r="J38" s="1" t="n">
+        <v>13044866605</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
+      <c r="A39" s="0"/>
+      <c r="B39" s="0"/>
+      <c r="C39" s="0"/>
+      <c r="D39" s="0"/>
+      <c r="E39" s="0"/>
+      <c r="F39" s="0"/>
+      <c r="G39" s="0"/>
+      <c r="H39" s="0"/>
+      <c r="I39" s="0"/>
       <c r="J39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A40" s="0"/>
+      <c r="B40" s="0"/>
+      <c r="C40" s="0"/>
+      <c r="D40" s="0"/>
+      <c r="E40" s="0"/>
+      <c r="F40" s="0"/>
+      <c r="G40" s="0"/>
+      <c r="H40" s="0"/>
+      <c r="I40" s="0"/>
+      <c r="J40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="A41" s="0"/>
+      <c r="B41" s="0"/>
+      <c r="C41" s="0"/>
+      <c r="D41" s="0"/>
+      <c r="E41" s="0"/>
       <c r="F41" s="0"/>
-      <c r="G41" s="1" t="n">
-        <v>13403088611</v>
-      </c>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="1" t="n">
-        <v>800</v>
-      </c>
+      <c r="G41" s="0"/>
+      <c r="H41" s="0"/>
+      <c r="I41" s="0"/>
+      <c r="J41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="A42" s="0"/>
+      <c r="B42" s="0"/>
+      <c r="C42" s="0"/>
+      <c r="D42" s="0"/>
+      <c r="E42" s="0"/>
       <c r="F42" s="0"/>
-      <c r="G42" s="1" t="n">
-        <v>18872131370</v>
-      </c>
-      <c r="H42" s="5"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="1" t="n">
-        <v>800</v>
-      </c>
+      <c r="G42" s="0"/>
+      <c r="H42" s="0"/>
+      <c r="I42" s="0"/>
+      <c r="J42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="A43" s="0"/>
+      <c r="B43" s="0"/>
+      <c r="C43" s="0"/>
       <c r="D43" s="0"/>
-      <c r="E43" s="1" t="n">
-        <v>40</v>
-      </c>
+      <c r="E43" s="0"/>
       <c r="F43" s="0"/>
-      <c r="G43" s="1" t="n">
-        <v>15172842580</v>
-      </c>
+      <c r="G43" s="0"/>
       <c r="H43" s="0"/>
       <c r="I43" s="0"/>
-      <c r="J43" s="1" t="n">
-        <v>500</v>
-      </c>
+      <c r="J43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="A44" s="0"/>
+      <c r="B44" s="0"/>
+      <c r="C44" s="0"/>
       <c r="D44" s="0"/>
-      <c r="E44" s="12" t="n">
-        <v>20</v>
-      </c>
+      <c r="E44" s="0"/>
       <c r="F44" s="0"/>
-      <c r="G44" s="1" t="n">
-        <v>18372525023</v>
-      </c>
+      <c r="G44" s="0"/>
       <c r="H44" s="0"/>
       <c r="I44" s="0"/>
-      <c r="J44" s="1" t="n">
-        <v>500</v>
-      </c>
+      <c r="J44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D45" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="E45" s="1" t="n">
-        <v>50</v>
-      </c>
+      <c r="A45" s="0"/>
+      <c r="B45" s="0"/>
+      <c r="C45" s="0"/>
+      <c r="D45" s="0"/>
+      <c r="E45" s="0"/>
       <c r="F45" s="0"/>
-      <c r="G45" s="1" t="n">
-        <v>13197217793</v>
-      </c>
+      <c r="G45" s="0"/>
       <c r="H45" s="0"/>
       <c r="I45" s="0"/>
-      <c r="J45" s="1" t="n">
-        <v>800</v>
-      </c>
+      <c r="J45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>72</v>
-      </c>
+      <c r="A46" s="0"/>
+      <c r="B46" s="0"/>
+      <c r="C46" s="0"/>
       <c r="D46" s="0"/>
       <c r="E46" s="0"/>
       <c r="F46" s="0"/>
       <c r="G46" s="0"/>
       <c r="H46" s="0"/>
-      <c r="I46" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="J46" s="1" t="n">
-        <v>800</v>
-      </c>
+      <c r="I46" s="0"/>
+      <c r="J46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0"/>
@@ -1881,9 +1860,7 @@
       <c r="J48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="A49" s="0"/>
       <c r="B49" s="0"/>
       <c r="C49" s="0"/>
       <c r="D49" s="0"/>
@@ -1895,141 +1872,457 @@
       <c r="J49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>11</v>
-      </c>
+      <c r="A50" s="0"/>
+      <c r="B50" s="0"/>
+      <c r="C50" s="0"/>
+      <c r="D50" s="0"/>
+      <c r="E50" s="0"/>
+      <c r="F50" s="0"/>
       <c r="G50" s="0"/>
       <c r="H50" s="0"/>
       <c r="I50" s="0"/>
       <c r="J50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E51" s="12"/>
-      <c r="F51" s="1" t="n">
-        <v>300</v>
-      </c>
+      <c r="A51" s="0"/>
+      <c r="B51" s="0"/>
+      <c r="C51" s="0"/>
+      <c r="D51" s="0"/>
+      <c r="E51" s="0"/>
+      <c r="F51" s="0"/>
       <c r="G51" s="0"/>
       <c r="H51" s="0"/>
       <c r="I51" s="0"/>
       <c r="J51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D52" s="1" t="n">
-        <v>13593614222</v>
-      </c>
-      <c r="F52" s="1" t="n">
-        <v>300</v>
-      </c>
+      <c r="A52" s="0"/>
+      <c r="B52" s="0"/>
+      <c r="C52" s="0"/>
+      <c r="D52" s="0"/>
+      <c r="E52" s="0"/>
+      <c r="F52" s="0"/>
       <c r="G52" s="0"/>
       <c r="H52" s="0"/>
       <c r="I52" s="0"/>
       <c r="J52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D53" s="1" t="n">
-        <v>13593606827</v>
-      </c>
-      <c r="F53" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="G53" s="0"/>
-      <c r="H53" s="0"/>
-      <c r="I53" s="0"/>
+      <c r="A53" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
       <c r="J53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="s">
-        <v>86</v>
+      <c r="A54" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D54" s="1" t="n">
-        <v>13044838367</v>
-      </c>
-      <c r="F54" s="1" t="n">
-        <v>300</v>
+        <v>3</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>13872713300</v>
-      </c>
-      <c r="F55" s="1" t="n">
-        <v>300</v>
+        <v>1</v>
+      </c>
+      <c r="E55" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" s="0"/>
+      <c r="G55" s="1" t="n">
+        <v>13403088611</v>
+      </c>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="1" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" s="0"/>
+      <c r="G56" s="1" t="n">
+        <v>18872131370</v>
+      </c>
+      <c r="H56" s="5"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="1" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D57" s="0"/>
+      <c r="E57" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="F57" s="0"/>
+      <c r="G57" s="1" t="n">
+        <v>15172842580</v>
+      </c>
+      <c r="H57" s="0"/>
+      <c r="I57" s="0"/>
+      <c r="J57" s="1" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" s="0"/>
+      <c r="E58" s="12" t="n">
+        <v>20</v>
+      </c>
+      <c r="F58" s="0"/>
+      <c r="G58" s="1" t="n">
+        <v>18372525023</v>
+      </c>
+      <c r="H58" s="0"/>
+      <c r="I58" s="0"/>
+      <c r="J58" s="1" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="E59" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="F59" s="0"/>
+      <c r="G59" s="1" t="n">
+        <v>13197217793</v>
+      </c>
+      <c r="H59" s="0"/>
+      <c r="I59" s="0"/>
+      <c r="J59" s="1" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D60" s="0"/>
+      <c r="E60" s="0"/>
+      <c r="F60" s="0"/>
+      <c r="G60" s="0"/>
+      <c r="H60" s="0"/>
+      <c r="I60" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J60" s="1" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="E61" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="F61" s="0"/>
+      <c r="G61" s="1" t="n">
+        <v>13235594869</v>
+      </c>
+      <c r="H61" s="0"/>
+      <c r="I61" s="0"/>
+      <c r="J61" s="1" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D62" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="E62" s="0"/>
+      <c r="F62" s="0"/>
+      <c r="G62" s="1" t="n">
+        <v>13971871063</v>
+      </c>
+      <c r="H62" s="0"/>
+      <c r="I62" s="0"/>
+      <c r="J62" s="1" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0"/>
+      <c r="B63" s="0"/>
+      <c r="C63" s="0"/>
+      <c r="D63" s="0"/>
+      <c r="E63" s="0"/>
+      <c r="F63" s="0"/>
+      <c r="G63" s="0"/>
+      <c r="H63" s="0"/>
+      <c r="I63" s="0"/>
+      <c r="J63" s="0"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B64" s="0"/>
+      <c r="C64" s="0"/>
+      <c r="D64" s="0"/>
+      <c r="E64" s="0"/>
+      <c r="F64" s="0"/>
+      <c r="G64" s="0"/>
+      <c r="H64" s="0"/>
+      <c r="I64" s="0"/>
+      <c r="J64" s="0"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="0"/>
+      <c r="H65" s="0"/>
+      <c r="I65" s="0"/>
+      <c r="J65" s="0"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="B66" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D66" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D56" s="1" t="n">
+      <c r="E66" s="12"/>
+      <c r="F66" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="G66" s="0"/>
+      <c r="H66" s="0"/>
+      <c r="I66" s="0"/>
+      <c r="J66" s="0"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D67" s="1" t="n">
+        <v>13593614222</v>
+      </c>
+      <c r="F67" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="G67" s="0"/>
+      <c r="H67" s="0"/>
+      <c r="I67" s="0"/>
+      <c r="J67" s="0"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D68" s="1" t="n">
+        <v>13593606827</v>
+      </c>
+      <c r="F68" s="1" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D69" s="1" t="n">
+        <v>13044838367</v>
+      </c>
+      <c r="F69" s="1" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D70" s="1" t="n">
+        <v>13872713300</v>
+      </c>
+      <c r="F70" s="1" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D71" s="1" t="n">
         <v>13971886605</v>
       </c>
-      <c r="F56" s="1" t="n">
+      <c r="F71" s="1" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D72" s="1" t="n">
+        <v>13581211000</v>
+      </c>
+      <c r="F72" s="1" t="n">
         <v>300</v>
       </c>
     </row>

--- a/students_names.xlsx
+++ b/students_names.xlsx
@@ -326,7 +326,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -378,18 +378,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF800000"/>
-      <name val="Droid Sans Fallback"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Droid Sans Fallback"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -433,7 +421,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -486,14 +474,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -513,8 +493,8 @@
   </sheetPr>
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H36" activeCellId="0" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -524,7 +504,7 @@
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="36.5263157894737"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="8.57085020242915"/>
   </cols>
@@ -1676,7 +1656,9 @@
       <c r="G36" s="0"/>
       <c r="H36" s="0"/>
       <c r="I36" s="0"/>
-      <c r="J36" s="0"/>
+      <c r="J36" s="1" t="n">
+        <v>13886757469</v>
+      </c>
       <c r="K36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1710,13 +1692,13 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="11" t="s">
         <v>35</v>
       </c>
       <c r="D38" s="0" t="s">
@@ -1731,7 +1713,7 @@
       <c r="G38" s="1" t="n">
         <v>13403022413</v>
       </c>
-      <c r="H38" s="14" t="s">
+      <c r="H38" s="11" t="s">
         <v>36</v>
       </c>
       <c r="I38" s="0"/>
@@ -2128,13 +2110,13 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C62" s="11" t="s">
         <v>70</v>
       </c>
       <c r="D62" s="1" t="n">
